--- a/project_input_template/landbosse-expected-validation-data.xlsx
+++ b/project_input_template/landbosse-expected-validation-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhaskar/Desktop/landbosse-issue-103-validation-fails-2020-2-3-9-17-18/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhaskar/Desktop/Projects/public_landbosse/LandBOSSE/project_input_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB3DDB5-47DA-414F-BE39-B3642204830A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF7B4B-A205-5C49-AEFD-94CF624E0689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="460" windowWidth="27260" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27260" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_by_module_type_operation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="48">
   <si>
     <t>FoundationCost</t>
   </si>
@@ -175,6 +175,9 @@
   <si>
     <t>Transmission and Distribution</t>
   </si>
+  <si>
+    <t>Grid Connection</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +186,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="\$\ #,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -237,17 +240,21 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -588,10 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E241" sqref="E241"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,7 +611,7 @@
     <col min="6" max="6" width="53.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -632,12 +640,12 @@
       <c r="H1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -657,17 +665,17 @@
         <v>15</v>
       </c>
       <c r="G2" s="2">
-        <v>1484.2967885466289</v>
+        <v>1128.564298808659</v>
       </c>
       <c r="H2" s="2">
-        <v>1484.2967885466289</v>
+        <v>1128.564298808659</v>
       </c>
       <c r="I2" s="2">
-        <v>2.248934528100953</v>
+        <v>1.7099459072858469</v>
       </c>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -687,17 +695,17 @@
         <v>16</v>
       </c>
       <c r="G3" s="2">
-        <v>27108.58157342163</v>
+        <v>33987.144388945228</v>
       </c>
       <c r="H3" s="2">
-        <v>27108.58157342163</v>
+        <v>33987.144388945228</v>
       </c>
       <c r="I3" s="2">
-        <v>41.073608444578227</v>
+        <v>51.495673316583691</v>
       </c>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -717,17 +725,17 @@
         <v>17</v>
       </c>
       <c r="G4" s="2">
-        <v>20693.084550040428</v>
+        <v>19586.318500927751</v>
       </c>
       <c r="H4" s="2">
-        <v>20693.084550040428</v>
+        <v>19586.318500927751</v>
       </c>
       <c r="I4" s="2">
-        <v>31.353158409152169</v>
+        <v>29.67624015292084</v>
       </c>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -747,17 +755,17 @@
         <v>18</v>
       </c>
       <c r="G5" s="2">
-        <v>13071.88645478135</v>
+        <v>14508.363964267441</v>
       </c>
       <c r="H5" s="2">
-        <v>13071.88645478135</v>
+        <v>14508.363964267441</v>
       </c>
       <c r="I5" s="2">
-        <v>19.80588856785052</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21.982369642829461</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -777,17 +785,17 @@
         <v>17</v>
       </c>
       <c r="G6" s="2">
-        <v>5345.0684699999993</v>
+        <v>6681.3355874999988</v>
       </c>
       <c r="H6" s="2">
-        <v>5345.0684699999993</v>
+        <v>6681.3355874999988</v>
       </c>
       <c r="I6" s="2">
-        <v>8.09858859090909</v>
+        <v>10.12323573863636</v>
       </c>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -807,17 +815,17 @@
         <v>15</v>
       </c>
       <c r="G7" s="2">
-        <v>3887.6411140249988</v>
+        <v>3338.8677447959999</v>
       </c>
       <c r="H7" s="2">
-        <v>3887.6411140249988</v>
+        <v>3338.8677447959999</v>
       </c>
       <c r="I7" s="2">
-        <v>5.8903653242803022</v>
+        <v>5.0588905224181806</v>
       </c>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -837,17 +845,17 @@
         <v>16</v>
       </c>
       <c r="G8" s="2">
-        <v>265935.47330783663</v>
+        <v>216451.40572270809</v>
       </c>
       <c r="H8" s="2">
-        <v>265935.47330783663</v>
+        <v>216451.40572270809</v>
       </c>
       <c r="I8" s="2">
-        <v>402.93253531490399</v>
+        <v>327.95667533743648</v>
       </c>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -877,7 +885,7 @@
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -897,17 +905,17 @@
         <v>18</v>
       </c>
       <c r="G10" s="2">
-        <v>72981.575893174027</v>
+        <v>60066.010358444873</v>
       </c>
       <c r="H10" s="2">
-        <v>72981.575893174027</v>
+        <v>60066.010358444873</v>
       </c>
       <c r="I10" s="2">
-        <v>110.57814529268791</v>
+        <v>91.009106603704353</v>
       </c>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -937,7 +945,7 @@
       </c>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -951,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -967,7 +975,7 @@
       </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -986,18 +994,18 @@
       <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="2">
-        <v>855.64304461942277</v>
-      </c>
-      <c r="H13" s="2">
-        <v>855.64304461942277</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1.296428855483974</v>
+      <c r="G13" s="7">
+        <v>694.62372531302447</v>
+      </c>
+      <c r="H13" s="7">
+        <v>694.62372531302447</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.0524601898682191</v>
       </c>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1016,18 +1024,18 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="2">
-        <v>3390.1933508311458</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3390.1933508311458</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5.1366565921684044</v>
+      <c r="G14" s="7">
+        <v>3844.3482397993412</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3844.3482397993412</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5.8247700603020318</v>
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1046,18 +1054,18 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="2">
-        <v>2037.40157480315</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2037.40157480315</v>
-      </c>
-      <c r="I15" s="2">
-        <v>3.086972083035076</v>
+      <c r="G15" s="7">
+        <v>1968.5039370078739</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1968.5039370078739</v>
+      </c>
+      <c r="I15" s="7">
+        <v>2.9825817227392042</v>
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1076,18 +1084,18 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2">
-        <v>1666.47395044635</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1666.47395044635</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2.5249605309793179</v>
+      <c r="G16" s="7">
+        <v>1725.9475330046801</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1725.9475330046801</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2.6150720197040611</v>
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1117,7 +1125,7 @@
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1147,7 +1155,7 @@
       </c>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1177,7 +1185,7 @@
       </c>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1207,7 +1215,7 @@
       </c>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1257,13 +1265,13 @@
         <v>15</v>
       </c>
       <c r="G22" s="2">
-        <v>4642.2457119897144</v>
+        <v>4361.1009268495436</v>
       </c>
       <c r="H22" s="2">
-        <v>4642.2457119897144</v>
+        <v>4361.1009268495436</v>
       </c>
       <c r="I22" s="2">
-        <v>7.0337056242268394</v>
+        <v>6.6077286770447632</v>
       </c>
       <c r="J22"/>
     </row>
@@ -1287,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="G23" s="2">
-        <v>240</v>
+        <v>235.5</v>
       </c>
       <c r="H23" s="2">
-        <v>240</v>
+        <v>235.5</v>
       </c>
       <c r="I23" s="2">
-        <v>0.36363636363636359</v>
+        <v>0.35681818181818181</v>
       </c>
       <c r="J23"/>
     </row>
@@ -1317,13 +1325,13 @@
         <v>16</v>
       </c>
       <c r="G24" s="2">
-        <v>22935.223680327861</v>
+        <v>21723.736780988598</v>
       </c>
       <c r="H24" s="2">
-        <v>22935.223680327861</v>
+        <v>21723.736780988598</v>
       </c>
       <c r="I24" s="2">
-        <v>34.750338909587683</v>
+        <v>32.914752698467566</v>
       </c>
       <c r="J24"/>
     </row>
@@ -1347,13 +1355,13 @@
         <v>18</v>
       </c>
       <c r="G25" s="2">
-        <v>208000</v>
+        <v>384876</v>
       </c>
       <c r="H25" s="2">
-        <v>208000</v>
+        <v>384876</v>
       </c>
       <c r="I25" s="2">
-        <v>315.15151515151513</v>
+        <v>583.14545454545453</v>
       </c>
       <c r="J25"/>
     </row>
@@ -1417,7 +1425,7 @@
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1437,18 +1445,17 @@
         <v>38</v>
       </c>
       <c r="G28" s="2">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="H28" s="2">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="I28" s="2">
-        <f>H28/650</f>
-        <v>769.23076923076928</v>
+        <v>2272.727272727273</v>
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1464,23 +1471,21 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="2">
-        <f>H29</f>
-        <v>3975.182928333862</v>
-      </c>
-      <c r="H29" s="2">
-        <v>3975.182928333862</v>
-      </c>
-      <c r="I29" s="4">
-        <f>H29/C29/1000</f>
-        <v>2.6501219522225745</v>
+      <c r="G29" s="9">
+        <v>3075.5356983444499</v>
+      </c>
+      <c r="H29" s="9">
+        <v>3075.5356983444499</v>
+      </c>
+      <c r="I29" s="9">
+        <v>2.0503571322296299</v>
       </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1496,23 +1501,21 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" ref="G30:G93" si="0">H30</f>
-        <v>73636.304846054991</v>
-      </c>
-      <c r="H30" s="2">
-        <v>73636.304846054991</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" ref="I30:I93" si="1">H30/C30/1000</f>
-        <v>49.090869897369991</v>
+      <c r="G30" s="9">
+        <v>95254.489195030299</v>
+      </c>
+      <c r="H30" s="9">
+        <v>95254.489195030299</v>
+      </c>
+      <c r="I30" s="9">
+        <v>63.502992796686797</v>
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1528,23 +1531,21 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="2">
-        <f t="shared" si="0"/>
-        <v>59490.611335723843</v>
-      </c>
-      <c r="H31" s="2">
-        <v>59490.611335723843</v>
-      </c>
-      <c r="I31" s="4">
-        <f t="shared" si="1"/>
-        <v>39.660407557149227</v>
+      <c r="G31" s="9">
+        <v>55730.312160670903</v>
+      </c>
+      <c r="H31" s="9">
+        <v>55730.312160670903</v>
+      </c>
+      <c r="I31" s="9">
+        <v>37.153541440447199</v>
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1560,23 +1561,21 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="2">
-        <f t="shared" si="0"/>
-        <v>23892.161552569709</v>
-      </c>
-      <c r="H32" s="2">
-        <v>23892.161552569709</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="1"/>
-        <v>15.92810770171314</v>
+      <c r="G32" s="9">
+        <v>26847.396835130501</v>
+      </c>
+      <c r="H32" s="9">
+        <v>26847.396835130501</v>
+      </c>
+      <c r="I32" s="9">
+        <v>17.898264556753698</v>
       </c>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1592,23 +1591,21 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="2">
-        <f t="shared" si="0"/>
-        <v>15817.039349999999</v>
-      </c>
-      <c r="H33" s="2">
-        <v>15817.039349999999</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" si="1"/>
-        <v>10.544692899999999</v>
+      <c r="G33" s="9">
+        <v>19771.299187499899</v>
+      </c>
+      <c r="H33" s="9">
+        <v>19771.299187499899</v>
+      </c>
+      <c r="I33" s="9">
+        <v>13.1808661249999</v>
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1624,23 +1621,21 @@
       <c r="E34" t="s">
         <v>9</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="2">
-        <f t="shared" si="0"/>
-        <v>10867.97502475</v>
-      </c>
-      <c r="H34" s="2">
-        <v>10867.97502475</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" si="1"/>
-        <v>7.2453166831666671</v>
+      <c r="G34" s="9">
+        <v>9499.9997516999902</v>
+      </c>
+      <c r="H34" s="9">
+        <v>9499.9997516999902</v>
+      </c>
+      <c r="I34" s="9">
+        <v>6.3333331677999896</v>
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1656,23 +1651,21 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="2">
-        <f t="shared" si="0"/>
-        <v>53466.41330225586</v>
-      </c>
-      <c r="H35" s="2">
-        <v>53466.41330225586</v>
-      </c>
-      <c r="I35" s="4">
-        <f t="shared" si="1"/>
-        <v>35.644275534837234</v>
+      <c r="G35" s="9">
+        <v>50782.093894713602</v>
+      </c>
+      <c r="H35" s="9">
+        <v>50782.093894713602</v>
+      </c>
+      <c r="I35" s="9">
+        <v>33.854729263142403</v>
       </c>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1688,23 +1681,21 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" si="0"/>
+      <c r="G36" s="9">
         <v>82648.600000000006</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="9">
         <v>82648.600000000006</v>
       </c>
-      <c r="I36" s="4">
-        <f t="shared" si="1"/>
-        <v>55.099066666666673</v>
+      <c r="I36" s="9">
+        <v>55.099066666666602</v>
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1720,23 +1711,21 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="2">
-        <f t="shared" si="0"/>
-        <v>28370.42311728502</v>
-      </c>
-      <c r="H37" s="2">
-        <v>28370.42311728502</v>
-      </c>
-      <c r="I37" s="4">
-        <f t="shared" si="1"/>
-        <v>18.913615411523349</v>
+      <c r="G37" s="9">
+        <v>28353.339029410701</v>
+      </c>
+      <c r="H37" s="9">
+        <v>28353.339029410701</v>
+      </c>
+      <c r="I37" s="9">
+        <v>18.902226019607099</v>
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1756,19 +1745,19 @@
         <v>19</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G38:G55" si="0">H38</f>
         <v>0</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" si="1"/>
+      <c r="I38" s="5">
+        <f t="shared" ref="I38:I55" si="1">H38/C38/1000</f>
         <v>0</v>
       </c>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1794,13 +1783,13 @@
       <c r="H39" s="2">
         <v>371334.19536712352</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="5">
         <f t="shared" si="1"/>
         <v>247.55613024474903</v>
       </c>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1819,20 +1808,18 @@
       <c r="F40" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="2">
-        <f t="shared" si="0"/>
-        <v>2635.3805774278221</v>
-      </c>
-      <c r="H40" s="2">
-        <v>2635.3805774278221</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" si="1"/>
-        <v>1.7569203849518815</v>
+      <c r="G40" s="8">
+        <v>2139.4410739641098</v>
+      </c>
+      <c r="H40" s="8">
+        <v>2139.4410739641098</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1.4262940493094101</v>
       </c>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1851,20 +1838,18 @@
       <c r="F41" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="2">
-        <f t="shared" si="0"/>
-        <v>9168.8355205599291</v>
-      </c>
-      <c r="H41" s="2">
-        <v>9168.8355205599291</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="1"/>
-        <v>6.1125570137066196</v>
+      <c r="G41" s="8">
+        <v>10523.4325785819</v>
+      </c>
+      <c r="H41" s="8">
+        <v>10523.4325785819</v>
+      </c>
+      <c r="I41" s="8">
+        <v>7.0156217190546402</v>
       </c>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1883,20 +1868,18 @@
       <c r="F42" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="2">
-        <f t="shared" si="0"/>
-        <v>6275.1968503937014</v>
-      </c>
-      <c r="H42" s="2">
-        <v>6275.1968503937014</v>
-      </c>
-      <c r="I42" s="4">
-        <f t="shared" si="1"/>
-        <v>4.1834645669291337</v>
+      <c r="G42" s="8">
+        <v>6062.9921259842504</v>
+      </c>
+      <c r="H42" s="8">
+        <v>6062.9921259842504</v>
+      </c>
+      <c r="I42" s="8">
+        <v>4.0419947506561602</v>
       </c>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -1915,20 +1898,18 @@
       <c r="F43" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="2">
-        <f t="shared" si="0"/>
-        <v>3150.6173701354301</v>
-      </c>
-      <c r="H43" s="2">
-        <v>3150.6173701354301</v>
-      </c>
-      <c r="I43" s="4">
-        <f t="shared" si="1"/>
-        <v>2.1004115800902867</v>
+      <c r="G43" s="8">
+        <v>3263.2717755331701</v>
+      </c>
+      <c r="H43" s="8">
+        <v>3263.2717755331701</v>
+      </c>
+      <c r="I43" s="8">
+        <v>2.1755145170221102</v>
       </c>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1954,13 +1935,13 @@
       <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1986,13 +1967,13 @@
       <c r="H45" s="2">
         <v>150000</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2018,13 +1999,13 @@
       <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -2050,13 +2031,13 @@
       <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2082,7 +2063,7 @@
       <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2104,19 +2085,17 @@
       <c r="E49" t="s">
         <v>13</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="2">
-        <f t="shared" si="0"/>
-        <v>7070.6972452158416</v>
-      </c>
-      <c r="H49" s="2">
-        <v>7070.6972452158416</v>
-      </c>
-      <c r="I49" s="4">
-        <f t="shared" si="1"/>
-        <v>4.7137981634772279</v>
+      <c r="G49" s="5">
+        <v>6931.8389218436796</v>
+      </c>
+      <c r="H49" s="5">
+        <v>6931.8389218436796</v>
+      </c>
+      <c r="I49" s="5">
+        <v>4.6212259478957902</v>
       </c>
       <c r="J49"/>
     </row>
@@ -2136,19 +2115,17 @@
       <c r="E50" t="s">
         <v>13</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="2">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="H50" s="2">
-        <v>240</v>
-      </c>
-      <c r="I50" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16</v>
+      <c r="G50" s="5">
+        <v>169.5</v>
+      </c>
+      <c r="H50" s="5">
+        <v>169.5</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.113</v>
       </c>
       <c r="J50"/>
     </row>
@@ -2168,19 +2145,17 @@
       <c r="E51" t="s">
         <v>13</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="2">
-        <f t="shared" si="0"/>
-        <v>35349.322678682678</v>
-      </c>
-      <c r="H51" s="2">
-        <v>35349.322678682678</v>
-      </c>
-      <c r="I51" s="4">
-        <f t="shared" si="1"/>
-        <v>23.566215119121786</v>
+      <c r="G51" s="5">
+        <v>49441.813382952401</v>
+      </c>
+      <c r="H51" s="5">
+        <v>49441.813382952401</v>
+      </c>
+      <c r="I51" s="5">
+        <v>32.961208921968201</v>
       </c>
       <c r="J51"/>
     </row>
@@ -2200,19 +2175,17 @@
       <c r="E52" t="s">
         <v>13</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="2">
-        <f t="shared" si="0"/>
-        <v>416000</v>
-      </c>
-      <c r="H52" s="2">
-        <v>416000</v>
-      </c>
-      <c r="I52" s="4">
-        <f t="shared" si="1"/>
-        <v>277.33333333333331</v>
+      <c r="G52" s="5">
+        <v>400956</v>
+      </c>
+      <c r="H52" s="5">
+        <v>400956</v>
+      </c>
+      <c r="I52" s="5">
+        <v>267.30399999999997</v>
       </c>
       <c r="J52"/>
     </row>
@@ -2232,21 +2205,19 @@
       <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="5"/>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -2264,23 +2235,21 @@
       <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -2306,13 +2275,13 @@
       <c r="H55" s="2">
         <v>1519250</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="5">
         <f t="shared" si="1"/>
         <v>1012.8333333333334</v>
       </c>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2328,22 +2297,20 @@
       <c r="E56" t="s">
         <v>8</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="2">
-        <f t="shared" si="0"/>
-        <v>19875.914641669311</v>
-      </c>
-      <c r="H56" s="2">
-        <v>19875.914641669311</v>
-      </c>
-      <c r="I56" s="4">
-        <f t="shared" si="1"/>
-        <v>13.250609761112873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G56" s="9">
+        <v>3075.5356983444499</v>
+      </c>
+      <c r="H56" s="9">
+        <v>15377.678491722199</v>
+      </c>
+      <c r="I56" s="9">
+        <v>2.0503571322296299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -2359,22 +2326,20 @@
       <c r="E57" t="s">
         <v>8</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="2">
-        <f t="shared" si="0"/>
-        <v>198920.87063564689</v>
-      </c>
-      <c r="H57" s="2">
-        <v>198920.87063564689</v>
-      </c>
-      <c r="I57" s="4">
-        <f t="shared" si="1"/>
-        <v>132.61391375709795</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G57" s="9">
+        <v>45856.850068584601</v>
+      </c>
+      <c r="H57" s="9">
+        <v>229284.25034292301</v>
+      </c>
+      <c r="I57" s="9">
+        <v>30.571233379056402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -2390,22 +2355,20 @@
       <c r="E58" t="s">
         <v>8</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="2">
-        <f t="shared" si="0"/>
-        <v>297453.05667861918</v>
-      </c>
-      <c r="H58" s="2">
-        <v>297453.05667861918</v>
-      </c>
-      <c r="I58" s="4">
-        <f t="shared" si="1"/>
-        <v>198.30203778574614</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G58" s="9">
+        <v>55730.312160670903</v>
+      </c>
+      <c r="H58" s="9">
+        <v>278651.56080335402</v>
+      </c>
+      <c r="I58" s="9">
+        <v>37.153541440447199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -2421,22 +2384,20 @@
       <c r="E59" t="s">
         <v>8</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="2">
-        <f t="shared" si="0"/>
-        <v>89964.520642339325</v>
-      </c>
-      <c r="H59" s="2">
-        <v>89964.520642339325</v>
-      </c>
-      <c r="I59" s="4">
-        <f t="shared" si="1"/>
-        <v>59.97634709489288</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G59" s="9">
+        <v>3647.8188206376999</v>
+      </c>
+      <c r="H59" s="9">
+        <v>18239.094103188501</v>
+      </c>
+      <c r="I59" s="9">
+        <v>2.4318792137584602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -2452,22 +2413,20 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="2">
-        <f t="shared" si="0"/>
-        <v>79085.196749999974</v>
-      </c>
-      <c r="H60" s="2">
-        <v>79085.196749999974</v>
-      </c>
-      <c r="I60" s="4">
-        <f t="shared" si="1"/>
-        <v>52.723464499999977</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G60" s="9">
+        <v>19771.299187499899</v>
+      </c>
+      <c r="H60" s="9">
+        <v>98856.495937499902</v>
+      </c>
+      <c r="I60" s="9">
+        <v>13.1808661249999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -2483,22 +2442,20 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="2">
-        <f t="shared" si="0"/>
-        <v>54339.875123749989</v>
-      </c>
-      <c r="H61" s="2">
-        <v>54339.875123749989</v>
-      </c>
-      <c r="I61" s="4">
-        <f t="shared" si="1"/>
-        <v>36.226583415833325</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G61" s="9">
+        <v>9499.9997516999902</v>
+      </c>
+      <c r="H61" s="9">
+        <v>47499.998758499903</v>
+      </c>
+      <c r="I61" s="9">
+        <v>6.3333331677999896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -2514,22 +2471,20 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G62" s="2">
-        <f t="shared" si="0"/>
-        <v>86280.972911973833</v>
-      </c>
-      <c r="H62" s="2">
-        <v>86280.972911973833</v>
-      </c>
-      <c r="I62" s="4">
-        <f t="shared" si="1"/>
-        <v>57.520648607982558</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G62" s="9">
+        <v>17875.224438190799</v>
+      </c>
+      <c r="H62" s="9">
+        <v>89376.122190954397</v>
+      </c>
+      <c r="I62" s="9">
+        <v>11.9168162921272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -2545,22 +2500,20 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G63" s="2">
-        <f t="shared" si="0"/>
+      <c r="G63" s="9">
+        <v>32168.6</v>
+      </c>
+      <c r="H63" s="9">
         <v>160843</v>
       </c>
-      <c r="H63" s="2">
-        <v>160843</v>
-      </c>
-      <c r="I63" s="4">
-        <f t="shared" si="1"/>
-        <v>107.22866666666667</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I63" s="9">
+        <v>21.445733333333301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -2576,22 +2529,20 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="2">
-        <f t="shared" si="0"/>
-        <v>66316.557629028728</v>
-      </c>
-      <c r="H64" s="2">
-        <v>66316.557629028728</v>
-      </c>
-      <c r="I64" s="4">
-        <f t="shared" si="1"/>
-        <v>44.211038419352491</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G64" s="9">
+        <v>13821.8871453795</v>
+      </c>
+      <c r="H64" s="9">
+        <v>69109.435726897704</v>
+      </c>
+      <c r="I64" s="9">
+        <v>9.2145914302530301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -2611,18 +2562,18 @@
         <v>19</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G65:G102" si="2">H65/B65</f>
         <v>0</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
-      <c r="I65" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="5">
+        <f t="shared" ref="I65:I102" si="3">G65/1500</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -2642,18 +2593,18 @@
         <v>19</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="0"/>
-        <v>1856670.9768356171</v>
+        <f t="shared" si="2"/>
+        <v>371334.19536712341</v>
       </c>
       <c r="H66" s="2">
         <v>1856670.9768356171</v>
       </c>
-      <c r="I66" s="4">
-        <f t="shared" si="1"/>
-        <v>1237.7806512237448</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="5">
+        <f t="shared" si="3"/>
+        <v>247.55613024474894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -2669,20 +2620,20 @@
       <c r="E67" t="s">
         <v>11</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="6">
-        <v>2635.3805774278198</v>
-      </c>
-      <c r="H67" s="6">
-        <v>13176.9028871391</v>
-      </c>
-      <c r="I67" s="6">
-        <v>1.75692038495188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G67" s="7">
+        <v>2139.4410739641098</v>
+      </c>
+      <c r="H67" s="7">
+        <v>10697.2053698205</v>
+      </c>
+      <c r="I67" s="7">
+        <v>1.4262940493094101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -2698,20 +2649,20 @@
       <c r="E68" t="s">
         <v>11</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="6">
-        <v>8679.2355205599306</v>
-      </c>
-      <c r="H68" s="6">
-        <v>43396.177602799602</v>
-      </c>
-      <c r="I68" s="6">
-        <v>5.7861570137066201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G68" s="7">
+        <v>10016.8325785819</v>
+      </c>
+      <c r="H68" s="7">
+        <v>50084.162892909801</v>
+      </c>
+      <c r="I68" s="7">
+        <v>6.6778883857213103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -2727,20 +2678,20 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="6">
-        <v>6275.1968503936996</v>
-      </c>
-      <c r="H69" s="6">
-        <v>31375.984251968501</v>
-      </c>
-      <c r="I69" s="6">
-        <v>4.1834645669291302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G69" s="7">
+        <v>6062.9921259842504</v>
+      </c>
+      <c r="H69" s="7">
+        <v>30314.960629921199</v>
+      </c>
+      <c r="I69" s="7">
+        <v>4.0419947506561602</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -2756,20 +2707,20 @@
       <c r="E70" t="s">
         <v>11</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="6">
-        <v>3065.2969966906398</v>
-      </c>
-      <c r="H70" s="6">
-        <v>15326.4849834532</v>
-      </c>
-      <c r="I70" s="6">
-        <v>2.04353133112709</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G70" s="7">
+        <v>3174.9888891215601</v>
+      </c>
+      <c r="H70" s="7">
+        <v>15874.9444456078</v>
+      </c>
+      <c r="I70" s="7">
+        <v>2.1166592594143698</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -2789,18 +2740,18 @@
         <v>15</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
       </c>
-      <c r="I71" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -2820,18 +2771,18 @@
         <v>16</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="0"/>
-        <v>150000</v>
+        <f t="shared" si="2"/>
+        <v>30000</v>
       </c>
       <c r="H72" s="2">
         <v>150000</v>
       </c>
-      <c r="I72" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -2851,18 +2802,18 @@
         <v>17</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
       </c>
-      <c r="I73" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -2882,18 +2833,18 @@
         <v>18</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
       </c>
-      <c r="I74" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -2913,14 +2864,14 @@
         <v>19</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
       </c>
-      <c r="I75" s="4">
-        <f t="shared" si="1"/>
+      <c r="I75" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2940,19 +2891,17 @@
       <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="2">
-        <f t="shared" si="0"/>
-        <v>35353.486226079207</v>
-      </c>
-      <c r="H76" s="2">
-        <v>35353.486226079207</v>
-      </c>
-      <c r="I76" s="4">
-        <f t="shared" si="1"/>
-        <v>23.568990817386137</v>
+      <c r="G76" s="5">
+        <v>6931.8389218436796</v>
+      </c>
+      <c r="H76" s="5">
+        <v>34659.194609218401</v>
+      </c>
+      <c r="I76" s="5">
+        <v>4.6212259478957902</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -2971,19 +2920,17 @@
       <c r="E77" t="s">
         <v>13</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G77" s="2">
-        <f t="shared" si="0"/>
-        <v>1605</v>
-      </c>
-      <c r="H77" s="2">
-        <v>1605</v>
-      </c>
-      <c r="I77" s="4">
-        <f t="shared" si="1"/>
-        <v>1.07</v>
+      <c r="G77" s="5">
+        <v>263.7</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1318.5</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0.17580000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3002,19 +2949,17 @@
       <c r="E78" t="s">
         <v>13</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G78" s="2">
-        <f t="shared" si="0"/>
-        <v>182218.6133934134</v>
-      </c>
-      <c r="H78" s="2">
-        <v>182218.6133934134</v>
-      </c>
-      <c r="I78" s="4">
-        <f t="shared" si="1"/>
-        <v>121.47907559560893</v>
+      <c r="G78" s="5">
+        <v>51145.367149619</v>
+      </c>
+      <c r="H78" s="5">
+        <v>255726.83574809501</v>
+      </c>
+      <c r="I78" s="5">
+        <v>34.096911433079399</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3033,19 +2978,17 @@
       <c r="E79" t="s">
         <v>13</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="2">
-        <f t="shared" si="0"/>
-        <v>416000</v>
-      </c>
-      <c r="H79" s="2">
-        <v>416000</v>
-      </c>
-      <c r="I79" s="4">
-        <f t="shared" si="1"/>
-        <v>277.33333333333331</v>
+      <c r="G79" s="5">
+        <v>80191.199999999997</v>
+      </c>
+      <c r="H79" s="5">
+        <v>400956</v>
+      </c>
+      <c r="I79" s="5">
+        <v>53.460799999999999</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3064,18 +3007,16 @@
       <c r="E80" t="s">
         <v>13</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80" s="4">
-        <f t="shared" si="1"/>
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0</v>
+      </c>
+      <c r="I80" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3095,22 +3036,20 @@
       <c r="E81" t="s">
         <v>13</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="2">
-        <v>0</v>
-      </c>
-      <c r="I81" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -3130,18 +3069,18 @@
         <v>38</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="0"/>
-        <v>1519250</v>
+        <f t="shared" si="2"/>
+        <v>303850</v>
       </c>
       <c r="H82" s="2">
         <v>1519250</v>
       </c>
-      <c r="I82" s="4">
-        <f t="shared" si="1"/>
-        <v>1012.8333333333334</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I82" s="5">
+        <f t="shared" si="3"/>
+        <v>202.56666666666666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -3157,23 +3096,21 @@
       <c r="E83" t="s">
         <v>8</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="2">
-        <f t="shared" si="0"/>
-        <v>39751.829283338608</v>
-      </c>
-      <c r="H83" s="2">
-        <v>39751.829283338608</v>
-      </c>
-      <c r="I83" s="4">
-        <f t="shared" si="1"/>
-        <v>26.501219522225739</v>
+      <c r="G83" s="9">
+        <v>3075.5356983444499</v>
+      </c>
+      <c r="H83" s="9">
+        <v>30755.356983444501</v>
+      </c>
+      <c r="I83" s="9">
+        <v>2.0503571322296299</v>
       </c>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -3189,23 +3126,21 @@
       <c r="E84" t="s">
         <v>8</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="2">
-        <f t="shared" si="0"/>
-        <v>307821.74127129372</v>
-      </c>
-      <c r="H84" s="2">
-        <v>307821.74127129372</v>
-      </c>
-      <c r="I84" s="4">
-        <f t="shared" si="1"/>
-        <v>205.21449418086246</v>
+      <c r="G84" s="9">
+        <v>38028.790014276303</v>
+      </c>
+      <c r="H84" s="9">
+        <v>380287.90014276298</v>
+      </c>
+      <c r="I84" s="9">
+        <v>25.352526676184201</v>
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -3221,23 +3156,21 @@
       <c r="E85" t="s">
         <v>8</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="2">
-        <f t="shared" si="0"/>
-        <v>594906.11335723836</v>
-      </c>
-      <c r="H85" s="2">
-        <v>594906.11335723836</v>
-      </c>
-      <c r="I85" s="4">
-        <f t="shared" si="1"/>
-        <v>396.60407557149227</v>
+      <c r="G85" s="9">
+        <v>55730.312160670903</v>
+      </c>
+      <c r="H85" s="9">
+        <v>557303.12160670897</v>
+      </c>
+      <c r="I85" s="9">
+        <v>37.153541440447199</v>
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3253,23 +3186,21 @@
       <c r="E86" t="s">
         <v>8</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="2">
-        <f t="shared" si="0"/>
-        <v>164241.66379795651</v>
-      </c>
-      <c r="H86" s="2">
-        <v>164241.66379795651</v>
-      </c>
-      <c r="I86" s="4">
-        <f t="shared" si="1"/>
-        <v>109.49444253197102</v>
+      <c r="G86" s="9">
+        <v>1687.4933549304201</v>
+      </c>
+      <c r="H86" s="9">
+        <v>16874.933549304202</v>
+      </c>
+      <c r="I86" s="9">
+        <v>1.1249955699536101</v>
       </c>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -3285,23 +3216,21 @@
       <c r="E87" t="s">
         <v>9</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G87" s="2">
-        <f t="shared" si="0"/>
-        <v>158170.39349999989</v>
-      </c>
-      <c r="H87" s="2">
-        <v>158170.39349999989</v>
-      </c>
-      <c r="I87" s="4">
-        <f t="shared" si="1"/>
-        <v>105.44692899999993</v>
+      <c r="G87" s="9">
+        <v>19771.299187499899</v>
+      </c>
+      <c r="H87" s="9">
+        <v>197712.99187499899</v>
+      </c>
+      <c r="I87" s="9">
+        <v>13.1808661249999</v>
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -3317,23 +3246,21 @@
       <c r="E88" t="s">
         <v>9</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="2">
-        <f t="shared" si="0"/>
-        <v>108679.75024749999</v>
-      </c>
-      <c r="H88" s="2">
-        <v>108679.75024749999</v>
-      </c>
-      <c r="I88" s="4">
-        <f t="shared" si="1"/>
-        <v>72.453166831666664</v>
+      <c r="G88" s="9">
+        <v>9499.9997516999902</v>
+      </c>
+      <c r="H88" s="9">
+        <v>94999.997516999894</v>
+      </c>
+      <c r="I88" s="9">
+        <v>6.3333331677999896</v>
       </c>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>40</v>
       </c>
@@ -3349,23 +3276,21 @@
       <c r="E89" t="s">
         <v>9</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="2">
-        <f t="shared" si="0"/>
-        <v>112069.9458239477</v>
-      </c>
-      <c r="H89" s="2">
-        <v>112069.9458239477</v>
-      </c>
-      <c r="I89" s="4">
-        <f t="shared" si="1"/>
-        <v>74.713297215965127</v>
+      <c r="G89" s="9">
+        <v>12707.343555837901</v>
+      </c>
+      <c r="H89" s="9">
+        <v>127073.435558379</v>
+      </c>
+      <c r="I89" s="9">
+        <v>8.4715623705586207</v>
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>40</v>
       </c>
@@ -3381,23 +3306,21 @@
       <c r="E90" t="s">
         <v>9</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="2">
-        <f t="shared" si="0"/>
+      <c r="G90" s="9">
+        <v>25858.6</v>
+      </c>
+      <c r="H90" s="9">
         <v>258586</v>
       </c>
-      <c r="H90" s="2">
-        <v>258586</v>
-      </c>
-      <c r="I90" s="4">
-        <f t="shared" si="1"/>
-        <v>172.39066666666665</v>
+      <c r="I90" s="9">
+        <v>17.239066666666599</v>
       </c>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -3413,23 +3336,21 @@
       <c r="E91" t="s">
         <v>9</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G91" s="2">
-        <f t="shared" si="0"/>
-        <v>111095.2974582468</v>
-      </c>
-      <c r="H91" s="2">
-        <v>111095.2974582468</v>
-      </c>
-      <c r="I91" s="4">
-        <f t="shared" si="1"/>
-        <v>74.063531638831208</v>
+      <c r="G91" s="9">
+        <v>11821.6888544541</v>
+      </c>
+      <c r="H91" s="9">
+        <v>118216.888544541</v>
+      </c>
+      <c r="I91" s="9">
+        <v>7.88112590296946</v>
       </c>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -3449,19 +3370,19 @@
         <v>19</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
       </c>
-      <c r="I92" s="4">
-        <f t="shared" si="1"/>
+      <c r="I92" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -3481,19 +3402,19 @@
         <v>19</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="0"/>
-        <v>3713341.9536712351</v>
+        <f t="shared" si="2"/>
+        <v>371334.19536712352</v>
       </c>
       <c r="H93" s="2">
         <v>3713341.9536712351</v>
       </c>
-      <c r="I93" s="4">
-        <f t="shared" si="1"/>
-        <v>2475.5613024474901</v>
+      <c r="I93" s="5">
+        <f t="shared" si="3"/>
+        <v>247.55613024474903</v>
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -3509,21 +3430,21 @@
       <c r="E94" t="s">
         <v>11</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="7">
-        <v>2635.3805774278198</v>
+        <v>2139.4410739641098</v>
       </c>
       <c r="H94" s="7">
-        <v>26353.8057742782</v>
+        <v>21394.410739641098</v>
       </c>
       <c r="I94" s="7">
-        <v>1.75692038495188</v>
+        <v>1.4262940493094001</v>
       </c>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>40</v>
       </c>
@@ -3539,21 +3460,21 @@
       <c r="E95" t="s">
         <v>11</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="7">
-        <v>8618.0355205599299</v>
+        <v>10016.8325785819</v>
       </c>
       <c r="H95" s="7">
-        <v>86180.355205599204</v>
+        <v>100168.325785819</v>
       </c>
       <c r="I95" s="7">
-        <v>5.7453570137066103</v>
+        <v>6.6778883857213103</v>
       </c>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -3569,21 +3490,21 @@
       <c r="E96" t="s">
         <v>11</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G96" s="7">
-        <v>6275.1968503936996</v>
+        <v>6062.9921259842504</v>
       </c>
       <c r="H96" s="7">
-        <v>62751.968503937002</v>
+        <v>60629.9212598425</v>
       </c>
       <c r="I96" s="7">
-        <v>4.1834645669291302</v>
+        <v>4.0419947506561602</v>
       </c>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -3599,21 +3520,21 @@
       <c r="E97" t="s">
         <v>11</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G97" s="7">
-        <v>3054.6319500100499</v>
+        <v>3174.9888891215601</v>
       </c>
       <c r="H97" s="7">
-        <v>30546.319500100501</v>
+        <v>31749.8888912156</v>
       </c>
       <c r="I97" s="7">
-        <v>2.0364213000067002</v>
+        <v>2.1166592594143698</v>
       </c>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -3633,19 +3554,19 @@
         <v>15</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" ref="G98:G109" si="2">H98</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
       </c>
-      <c r="I98" s="4">
-        <f t="shared" ref="I98:I109" si="3">H98/C98/1000</f>
+      <c r="I98" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -3666,18 +3587,18 @@
       </c>
       <c r="G99" s="2">
         <f t="shared" si="2"/>
-        <v>150000</v>
+        <v>15000</v>
       </c>
       <c r="H99" s="2">
         <v>150000</v>
       </c>
-      <c r="I99" s="4">
+      <c r="I99" s="5">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -3703,13 +3624,13 @@
       <c r="H100" s="2">
         <v>0</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I100" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -3735,13 +3656,13 @@
       <c r="H101" s="2">
         <v>0</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I101" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>40</v>
       </c>
@@ -3767,7 +3688,7 @@
       <c r="H102" s="2">
         <v>0</v>
       </c>
-      <c r="I102" s="4">
+      <c r="I102" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3789,19 +3710,17 @@
       <c r="E103" t="s">
         <v>13</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="2">
-        <f t="shared" si="2"/>
-        <v>70706.972452158414</v>
-      </c>
-      <c r="H103" s="2">
-        <v>70706.972452158414</v>
-      </c>
-      <c r="I103" s="4">
-        <f t="shared" si="3"/>
-        <v>47.137981634772274</v>
+      <c r="G103" s="5">
+        <v>6931.8389218436796</v>
+      </c>
+      <c r="H103" s="5">
+        <v>69318.389218436801</v>
+      </c>
+      <c r="I103" s="5">
+        <v>4.6212259478957902</v>
       </c>
       <c r="J103"/>
     </row>
@@ -3821,19 +3740,17 @@
       <c r="E104" t="s">
         <v>13</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="2">
-        <f t="shared" si="2"/>
-        <v>3300</v>
-      </c>
-      <c r="H104" s="2">
-        <v>3300</v>
-      </c>
-      <c r="I104" s="4">
-        <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+      <c r="G104" s="5">
+        <v>293.85000000000002</v>
+      </c>
+      <c r="H104" s="5">
+        <v>2938.5</v>
+      </c>
+      <c r="I104" s="5">
+        <v>0.19589999999999999</v>
       </c>
       <c r="J104"/>
     </row>
@@ -3853,19 +3770,17 @@
       <c r="E105" t="s">
         <v>13</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G105" s="2">
-        <f t="shared" si="2"/>
-        <v>365013.2267868268</v>
-      </c>
-      <c r="H105" s="2">
-        <v>365013.2267868268</v>
-      </c>
-      <c r="I105" s="4">
-        <f t="shared" si="3"/>
-        <v>243.34215119121785</v>
+      <c r="G105" s="5">
+        <v>51651.967149618999</v>
+      </c>
+      <c r="H105" s="5">
+        <v>516519.67149619001</v>
+      </c>
+      <c r="I105" s="5">
+        <v>34.434644766412703</v>
       </c>
       <c r="J105"/>
     </row>
@@ -3885,19 +3800,17 @@
       <c r="E106" t="s">
         <v>13</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G106" s="2">
-        <f t="shared" si="2"/>
-        <v>416000</v>
-      </c>
-      <c r="H106" s="2">
-        <v>416000</v>
-      </c>
-      <c r="I106" s="4">
-        <f t="shared" si="3"/>
-        <v>277.33333333333331</v>
+      <c r="G106" s="5">
+        <v>40095.599999999999</v>
+      </c>
+      <c r="H106" s="5">
+        <v>400956</v>
+      </c>
+      <c r="I106" s="5">
+        <v>26.730399999999999</v>
       </c>
       <c r="J106"/>
     </row>
@@ -3917,18 +3830,16 @@
       <c r="E107" t="s">
         <v>13</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="2">
-        <v>0</v>
-      </c>
-      <c r="I107" s="4">
-        <f t="shared" si="3"/>
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0</v>
+      </c>
+      <c r="I107" s="5">
         <v>0</v>
       </c>
       <c r="J107"/>
@@ -3949,23 +3860,21 @@
       <c r="E108" t="s">
         <v>13</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G108" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="2">
-        <v>0</v>
-      </c>
-      <c r="I108" s="4">
-        <f t="shared" si="3"/>
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
+      <c r="H108" s="5">
+        <v>0</v>
+      </c>
+      <c r="I108" s="5">
         <v>0</v>
       </c>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -3985,19 +3894,19 @@
         <v>38</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G109" si="4">H109</f>
         <v>1519250</v>
       </c>
       <c r="H109" s="2">
         <v>1519250</v>
       </c>
-      <c r="I109" s="4">
-        <f t="shared" si="3"/>
+      <c r="I109" s="5">
+        <f t="shared" ref="I109" si="5">H109/C109/1000</f>
         <v>1012.8333333333334</v>
       </c>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>41</v>
       </c>
@@ -4022,12 +3931,12 @@
       <c r="H110">
         <v>307553.56983444502</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="5">
         <v>2.0503571322296299</v>
       </c>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>41</v>
       </c>
@@ -4052,12 +3961,12 @@
       <c r="H111">
         <v>3677659.9867217401</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="5">
         <v>24.517733244811598</v>
       </c>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>41</v>
       </c>
@@ -4082,12 +3991,12 @@
       <c r="H112">
         <v>5573031.2160670897</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="5">
         <v>37.153541440447199</v>
       </c>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -4112,12 +4021,12 @@
       <c r="H113">
         <v>955824.47726232803</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="5">
         <v>6.3721631817488502</v>
       </c>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -4142,12 +4051,12 @@
       <c r="H114">
         <v>797751.53459731699</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="5">
         <v>5.3183435639821104</v>
       </c>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>41</v>
       </c>
@@ -4172,12 +4081,12 @@
       <c r="H115">
         <v>412013.84003877599</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="5">
         <v>2.7467589335918401</v>
       </c>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -4202,12 +4111,12 @@
       <c r="H116">
         <v>609463.12967557705</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="5">
         <v>4.0630875311705097</v>
       </c>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -4232,12 +4141,12 @@
       <c r="H117">
         <v>1307300.76</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="5">
         <v>8.7153384000000003</v>
       </c>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -4262,12 +4171,12 @@
       <c r="H118">
         <v>83009.351967474897</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="5">
         <v>0.55339567978316595</v>
       </c>
       <c r="J118"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -4292,12 +4201,12 @@
       <c r="H119">
         <v>4859182.0720829004</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="5">
         <v>32.394547147219299</v>
       </c>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -4322,12 +4231,12 @@
       <c r="H120">
         <v>4084775.1528987698</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="5">
         <v>27.231834352658499</v>
       </c>
       <c r="J120"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>41</v>
       </c>
@@ -4346,18 +4255,18 @@
       <c r="F121" t="s">
         <v>15</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="7">
         <v>4266.1468629607598</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="7">
         <v>426614.68629607599</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="7">
         <v>2.8440979086404998</v>
       </c>
       <c r="J121"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -4376,18 +4285,18 @@
       <c r="F122" t="s">
         <v>16</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="7">
         <v>14028.8802678423</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="7">
         <v>1402888.02678423</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="7">
         <v>9.3525868452282594</v>
       </c>
       <c r="J122"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>41</v>
       </c>
@@ -4406,18 +4315,18 @@
       <c r="F123" t="s">
         <v>17</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="7">
         <v>28080.551406992901</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="7">
         <v>2808055.1406992902</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="7">
         <v>18.720367604661899</v>
       </c>
       <c r="J123"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -4436,18 +4345,18 @@
       <c r="F124" t="s">
         <v>18</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="7">
         <v>2318.7789268898</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="7">
         <v>231877.89268898001</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="7">
         <v>1.5458526179265299</v>
       </c>
       <c r="J124"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>41</v>
       </c>
@@ -4472,12 +4381,12 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="5">
         <v>0</v>
       </c>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>41</v>
       </c>
@@ -4502,12 +4411,12 @@
       <c r="H126">
         <v>150000</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="5">
         <v>1</v>
       </c>
       <c r="J126"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>41</v>
       </c>
@@ -4532,12 +4441,12 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="5">
         <v>0</v>
       </c>
       <c r="J127"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -4562,12 +4471,12 @@
       <c r="H128">
         <v>0</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="5">
         <v>0</v>
       </c>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>41</v>
       </c>
@@ -4592,7 +4501,7 @@
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="5">
         <v>0</v>
       </c>
       <c r="J129"/>
@@ -4616,13 +4525,13 @@
       <c r="F130" t="s">
         <v>15</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="9">
         <v>7489.11492789153</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="9">
         <v>748911.49278915301</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="9">
         <v>4.9927432852610201</v>
       </c>
       <c r="J130"/>
@@ -4646,13 +4555,13 @@
       <c r="F131" t="s">
         <v>20</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="9">
         <v>288.255</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="9">
         <v>28825.5</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="9">
         <v>0.19217000000000001</v>
       </c>
       <c r="J131"/>
@@ -4676,13 +4585,13 @@
       <c r="F132" t="s">
         <v>16</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="9">
         <v>51346.538032382698</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="9">
         <v>5134653.8032382699</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="9">
         <v>34.231025354921798</v>
       </c>
       <c r="J132"/>
@@ -4706,13 +4615,13 @@
       <c r="F133" t="s">
         <v>18</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="9">
         <v>8993.1</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="9">
         <v>899310</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="9">
         <v>5.9954000000000001</v>
       </c>
       <c r="J133"/>
@@ -4736,13 +4645,13 @@
       <c r="F134" t="s">
         <v>19</v>
       </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
+      <c r="G134" s="9">
+        <v>0</v>
+      </c>
+      <c r="H134" s="9">
+        <v>0</v>
+      </c>
+      <c r="I134" s="9">
         <v>0</v>
       </c>
       <c r="J134"/>
@@ -4766,18 +4675,18 @@
       <c r="F135" t="s">
         <v>17</v>
       </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
+      <c r="G135" s="9">
+        <v>0</v>
+      </c>
+      <c r="H135" s="9">
+        <v>0</v>
+      </c>
+      <c r="I135" s="9">
         <v>0</v>
       </c>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -4802,12 +4711,12 @@
       <c r="H136">
         <v>191048.209148397</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="5">
         <v>1.27365472765598</v>
       </c>
       <c r="J136"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -4832,12 +4741,12 @@
       <c r="H137">
         <v>410281.38499771198</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="5">
         <v>2.7352092333180802</v>
       </c>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -4862,12 +4771,12 @@
       <c r="H138">
         <v>1887763.4920373401</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="5">
         <v>12.5850899469156</v>
       </c>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -4892,12 +4801,12 @@
       <c r="H139">
         <v>341157.51633642399</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="5">
         <v>2.2743834422428302</v>
       </c>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>41</v>
       </c>
@@ -4922,12 +4831,12 @@
       <c r="H140">
         <v>4441870.8627002398</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="5">
         <v>29.612472418001602</v>
       </c>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -4952,12 +4861,12 @@
       <c r="H141">
         <v>2071325</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="5">
         <v>13.8088333333333</v>
       </c>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>41</v>
       </c>
@@ -4982,12 +4891,12 @@
       <c r="H142">
         <v>1306748.3500000001</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="5">
         <v>8.71165566666666</v>
       </c>
       <c r="J142"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>42</v>
       </c>
@@ -5012,12 +4921,12 @@
       <c r="H143">
         <v>259718.37475943001</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="5">
         <v>1.7314558317295301</v>
       </c>
       <c r="J143"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>42</v>
       </c>
@@ -5042,12 +4951,12 @@
       <c r="H144">
         <v>3249182.44529104</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="5">
         <v>21.6612163019402</v>
       </c>
       <c r="J144"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>42</v>
       </c>
@@ -5072,12 +4981,12 @@
       <c r="H145">
         <v>4751367.4212524798</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="5">
         <v>31.675782808349901</v>
       </c>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -5102,12 +5011,12 @@
       <c r="H146">
         <v>826026.82413029601</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="5">
         <v>5.5068454942019702</v>
       </c>
       <c r="J146"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>42</v>
       </c>
@@ -5132,12 +5041,12 @@
       <c r="H147">
         <v>589182.07597817399</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="5">
         <v>3.92788050652115</v>
       </c>
       <c r="J147"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>42</v>
       </c>
@@ -5162,12 +5071,12 @@
       <c r="H148">
         <v>309889.12395022798</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="5">
         <v>2.0659274930015199</v>
       </c>
       <c r="J148"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>42</v>
       </c>
@@ -5192,12 +5101,12 @@
       <c r="H149">
         <v>518182.73194132099</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="5">
         <v>3.4545515462754701</v>
       </c>
       <c r="J149"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>42</v>
       </c>
@@ -5222,12 +5131,12 @@
       <c r="H150">
         <v>907100.92799999996</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="5">
         <v>6.0473395200000004</v>
       </c>
       <c r="J150"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>42</v>
       </c>
@@ -5252,12 +5161,12 @@
       <c r="H151">
         <v>61711.621529541102</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="5">
         <v>0.41141081019694098</v>
       </c>
       <c r="J151"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>42</v>
       </c>
@@ -5282,12 +5191,12 @@
       <c r="H152">
         <v>4859182.0720829004</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="5">
         <v>32.394547147219299</v>
       </c>
       <c r="J152"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -5312,12 +5221,12 @@
       <c r="H153">
         <v>4084775.1528987698</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="5">
         <v>27.231834352658499</v>
       </c>
       <c r="J153"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>42</v>
       </c>
@@ -5336,18 +5245,18 @@
       <c r="F154" t="s">
         <v>15</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="7">
         <v>6185.4690519678597</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="7">
         <v>371128.14311807102</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="7">
         <v>2.4741876207871401</v>
       </c>
       <c r="J154"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>42</v>
       </c>
@@ -5366,18 +5275,18 @@
       <c r="F155" t="s">
         <v>16</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="7">
         <v>22167.905739850899</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="7">
         <v>1330074.3443910501</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="7">
         <v>8.8671622959403607</v>
       </c>
       <c r="J155"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>42</v>
       </c>
@@ -5396,18 +5305,18 @@
       <c r="F156" t="s">
         <v>17</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="7">
         <v>42610.630297744203</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="7">
         <v>2556637.8178646499</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="7">
         <v>17.0442521190976</v>
       </c>
       <c r="J156"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>42</v>
       </c>
@@ -5426,18 +5335,18 @@
       <c r="F157" t="s">
         <v>18</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="7">
         <v>3548.2002544781499</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="7">
         <v>212892.01526868899</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="7">
         <v>1.41928010179126</v>
       </c>
       <c r="J157"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>42</v>
       </c>
@@ -5462,12 +5371,12 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="5">
         <v>0</v>
       </c>
       <c r="J158"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>42</v>
       </c>
@@ -5492,12 +5401,12 @@
       <c r="H159">
         <v>150000</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="5">
         <v>1</v>
       </c>
       <c r="J159"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -5522,12 +5431,12 @@
       <c r="H160">
         <v>0</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="5">
         <v>0</v>
       </c>
       <c r="J160"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -5552,12 +5461,12 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="5">
         <v>0</v>
       </c>
       <c r="J161"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>42</v>
       </c>
@@ -5582,7 +5491,7 @@
       <c r="H162">
         <v>0</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="5">
         <v>0</v>
       </c>
       <c r="J162"/>
@@ -5606,13 +5515,13 @@
       <c r="F163" t="s">
         <v>15</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="9">
         <v>9442.9461961058605</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="9">
         <v>566576.77176635095</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="9">
         <v>3.7771784784423401</v>
       </c>
       <c r="J163"/>
@@ -5636,13 +5545,13 @@
       <c r="F164" t="s">
         <v>20</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="9">
         <v>304.5</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="9">
         <v>18270</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="9">
         <v>0.12180000000000001</v>
       </c>
       <c r="J164"/>
@@ -5666,13 +5575,13 @@
       <c r="F165" t="s">
         <v>16</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="9">
         <v>54137.465077806097</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="9">
         <v>3248247.9046683698</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="9">
         <v>21.654986031122402</v>
       </c>
       <c r="J165"/>
@@ -5696,13 +5605,13 @@
       <c r="F166" t="s">
         <v>18</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="9">
         <v>10195.5666666666</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="9">
         <v>611734</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="9">
         <v>4.0782266666666596</v>
       </c>
       <c r="J166"/>
@@ -5726,13 +5635,13 @@
       <c r="F167" t="s">
         <v>19</v>
       </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167">
+      <c r="G167" s="9">
+        <v>0</v>
+      </c>
+      <c r="H167" s="9">
+        <v>0</v>
+      </c>
+      <c r="I167" s="9">
         <v>0</v>
       </c>
       <c r="J167"/>
@@ -5756,18 +5665,18 @@
       <c r="F168" t="s">
         <v>17</v>
       </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168">
+      <c r="G168" s="9">
+        <v>0</v>
+      </c>
+      <c r="H168" s="9">
+        <v>0</v>
+      </c>
+      <c r="I168" s="9">
         <v>0</v>
       </c>
       <c r="J168"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>42</v>
       </c>
@@ -5792,12 +5701,12 @@
       <c r="H169">
         <v>162954.00670579099</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="5">
         <v>1.0863600447052699</v>
       </c>
       <c r="J169"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>42</v>
       </c>
@@ -5822,12 +5731,12 @@
       <c r="H170">
         <v>381725.90130866499</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="5">
         <v>2.54483934205776</v>
       </c>
       <c r="J170"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -5852,12 +5761,12 @@
       <c r="H171">
         <v>1634173.0425603001</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="5">
         <v>10.894486950401999</v>
       </c>
       <c r="J171"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -5882,12 +5791,12 @@
       <c r="H172">
         <v>290989.29768891301</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="5">
         <v>1.93992865125942</v>
       </c>
       <c r="J172"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>42</v>
       </c>
@@ -5912,12 +5821,12 @@
       <c r="H173">
         <v>3788680.65590965</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="5">
         <v>25.257871039397699</v>
       </c>
       <c r="J173"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -5942,12 +5851,12 @@
       <c r="H174">
         <v>1750185</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="5">
         <v>11.667899999999999</v>
       </c>
       <c r="J174"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -5972,12 +5881,12 @@
       <c r="H175">
         <v>1090362.8019999999</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="5">
         <v>7.2690853466666603</v>
       </c>
       <c r="J175"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>43</v>
       </c>
@@ -6002,12 +5911,12 @@
       <c r="H176">
         <v>193107.974962473</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="5">
         <v>1.9157537198657999</v>
       </c>
       <c r="J176"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>43</v>
       </c>
@@ -6032,12 +5941,12 @@
       <c r="H177">
         <v>2579041.3616208299</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="5">
         <v>25.585727793857501</v>
       </c>
       <c r="J177"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>43</v>
       </c>
@@ -6062,12 +5971,12 @@
       <c r="H178">
         <v>3554315.3328199298</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="5">
         <v>35.261064809721503</v>
       </c>
       <c r="J178"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -6092,12 +6001,12 @@
       <c r="H179">
         <v>632646.46694032406</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="5">
         <v>6.2762546323444903</v>
       </c>
       <c r="J179"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>43</v>
       </c>
@@ -6122,12 +6031,12 @@
       <c r="H180">
         <v>381539.38678190898</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="5">
         <v>3.78511296410624</v>
       </c>
       <c r="J180"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>43</v>
       </c>
@@ -6152,12 +6061,12 @@
       <c r="H181">
         <v>205059.489971893</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="5">
         <v>2.0343203370227498</v>
       </c>
       <c r="J181"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>43</v>
       </c>
@@ -6182,12 +6091,12 @@
       <c r="H182">
         <v>424299.83476814302</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="5">
         <v>4.2093237576204698</v>
       </c>
       <c r="J182"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>43</v>
       </c>
@@ -6212,12 +6121,12 @@
       <c r="H183">
         <v>579461.18400000001</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="5">
         <v>5.7486228571428502</v>
       </c>
       <c r="J183"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>43</v>
       </c>
@@ -6242,12 +6151,12 @@
       <c r="H184">
         <v>42224.055226107601</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="5">
         <v>0.41888943676694101</v>
       </c>
       <c r="J184"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>43</v>
       </c>
@@ -6272,12 +6181,12 @@
       <c r="H185">
         <v>4276716.9778279597</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="5">
         <v>42.427747795912303</v>
       </c>
       <c r="J185"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -6302,12 +6211,12 @@
       <c r="H186">
         <v>4084775.1528987698</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="5">
         <v>40.523563024789397</v>
       </c>
       <c r="J186"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>43</v>
       </c>
@@ -6326,18 +6235,18 @@
       <c r="F187" t="s">
         <v>15</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="7">
         <v>8413.8973164766394</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="7">
         <v>235589.12486134499</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="7">
         <v>2.33719369902128</v>
       </c>
       <c r="J187"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>43</v>
       </c>
@@ -6356,18 +6265,18 @@
       <c r="F188" t="s">
         <v>16</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="7">
         <v>41150.345941719403</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="7">
         <v>1152209.6863681399</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="7">
         <v>11.4306516504776</v>
       </c>
       <c r="J188"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>43</v>
       </c>
@@ -6386,18 +6295,18 @@
       <c r="F189" t="s">
         <v>17</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="7">
         <v>58053.6800389376</v>
       </c>
-      <c r="H189">
+      <c r="H189" s="7">
         <v>1625503.04109025</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="7">
         <v>16.126022233038199</v>
       </c>
       <c r="J189"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>43</v>
       </c>
@@ -6416,18 +6325,18 @@
       <c r="F190" t="s">
         <v>18</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="7">
         <v>5380.8961648566801</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="7">
         <v>150665.092615987</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="7">
         <v>1.49469337912685</v>
       </c>
       <c r="J190"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>43</v>
       </c>
@@ -6452,12 +6361,12 @@
       <c r="H191">
         <v>0</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="5">
         <v>0</v>
       </c>
       <c r="J191"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>43</v>
       </c>
@@ -6482,12 +6391,12 @@
       <c r="H192">
         <v>150000</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="5">
         <v>1.4880952380952299</v>
       </c>
       <c r="J192"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>43</v>
       </c>
@@ -6512,12 +6421,12 @@
       <c r="H193">
         <v>0</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="5">
         <v>0</v>
       </c>
       <c r="J193"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>43</v>
       </c>
@@ -6542,12 +6451,12 @@
       <c r="H194">
         <v>0</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="5">
         <v>0</v>
       </c>
       <c r="J194"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>43</v>
       </c>
@@ -6572,7 +6481,7 @@
       <c r="H195">
         <v>0</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="5">
         <v>0</v>
       </c>
       <c r="J195"/>
@@ -6596,13 +6505,13 @@
       <c r="F196" t="s">
         <v>15</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="9">
         <v>8523.1960817585805</v>
       </c>
-      <c r="H196">
+      <c r="H196" s="9">
         <v>238649.49028924</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="9">
         <v>2.36755446715516</v>
       </c>
       <c r="J196"/>
@@ -6626,13 +6535,13 @@
       <c r="F197" t="s">
         <v>20</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="9">
         <v>345.375</v>
       </c>
-      <c r="H197">
+      <c r="H197" s="9">
         <v>9670.5</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="9">
         <v>9.5937499999999995E-2</v>
       </c>
       <c r="J197"/>
@@ -6656,13 +6565,13 @@
       <c r="F198" t="s">
         <v>16</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="9">
         <v>73765.537350567</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="9">
         <v>2065435.0458158699</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="9">
         <v>20.490427041824098</v>
       </c>
       <c r="J198"/>
@@ -6686,13 +6595,13 @@
       <c r="F199" t="s">
         <v>18</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="9">
         <v>19227.6428571428</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="9">
         <v>538374</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="9">
         <v>5.3410119047619</v>
       </c>
       <c r="J199"/>
@@ -6716,13 +6625,13 @@
       <c r="F200" t="s">
         <v>19</v>
       </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="I200">
+      <c r="G200" s="9">
+        <v>0</v>
+      </c>
+      <c r="H200" s="9">
+        <v>0</v>
+      </c>
+      <c r="I200" s="9">
         <v>0</v>
       </c>
       <c r="J200"/>
@@ -6746,18 +6655,18 @@
       <c r="F201" t="s">
         <v>17</v>
       </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>0</v>
-      </c>
-      <c r="I201">
+      <c r="G201" s="9">
+        <v>0</v>
+      </c>
+      <c r="H201" s="9">
+        <v>0</v>
+      </c>
+      <c r="I201" s="9">
         <v>0</v>
       </c>
       <c r="J201"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>43</v>
       </c>
@@ -6782,12 +6691,12 @@
       <c r="H202">
         <v>127323.465913611</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="5">
         <v>1.2631296221588399</v>
       </c>
       <c r="J202"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -6812,12 +6721,12 @@
       <c r="H203">
         <v>339182.22272687103</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="5">
         <v>3.36490300324277</v>
       </c>
       <c r="J203"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>43</v>
       </c>
@@ -6842,12 +6751,12 @@
       <c r="H204">
         <v>1543295.59953299</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="5">
         <v>15.310472217589201</v>
       </c>
       <c r="J204"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>43</v>
       </c>
@@ -6872,12 +6781,12 @@
       <c r="H205">
         <v>227363.33198859199</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="5">
         <v>2.25558861099793</v>
       </c>
       <c r="J205"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>43</v>
       </c>
@@ -6902,12 +6811,12 @@
       <c r="H206">
         <v>2960270.5824914598</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="5">
         <v>29.367763715193099</v>
       </c>
       <c r="J206"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -6932,12 +6841,12 @@
       <c r="H207">
         <v>1469753</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="5">
         <v>14.5808829365079</v>
       </c>
       <c r="J207"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>43</v>
       </c>
@@ -6962,12 +6871,12 @@
       <c r="H208">
         <v>841483</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="5">
         <v>8.3480456349206307</v>
       </c>
       <c r="J208"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>44</v>
       </c>
@@ -6992,12 +6901,12 @@
       <c r="H209">
         <v>299863.90412468999</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="5">
         <v>2.97484031869732</v>
       </c>
       <c r="J209"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>44</v>
       </c>
@@ -7022,12 +6931,12 @@
       <c r="H210">
         <v>3672420.7586612101</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="5">
         <v>36.432745621639</v>
       </c>
       <c r="J210"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>44</v>
       </c>
@@ -7052,12 +6961,12 @@
       <c r="H211">
         <v>5574365.1000423701</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="5">
         <v>55.301241071848899</v>
       </c>
       <c r="J211"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>44</v>
       </c>
@@ -7082,12 +6991,12 @@
       <c r="H212">
         <v>954664.97628282697</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="5">
         <v>9.4708827012185299</v>
       </c>
       <c r="J212"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>44</v>
       </c>
@@ -7112,12 +7021,12 @@
       <c r="H213">
         <v>381539.38678190898</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="5">
         <v>3.78511296410624</v>
       </c>
       <c r="J213"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>44</v>
       </c>
@@ -7142,12 +7051,12 @@
       <c r="H214">
         <v>205059.489971893</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="5">
         <v>2.0343203370227498</v>
       </c>
       <c r="J214"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>44</v>
       </c>
@@ -7172,11 +7081,11 @@
       <c r="H215">
         <v>424299.83476814302</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="5">
         <v>4.2093237576204698</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>44</v>
       </c>
@@ -7201,11 +7110,11 @@
       <c r="H216">
         <v>579461.18400000001</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="5">
         <v>5.7486228571428502</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>44</v>
       </c>
@@ -7230,11 +7139,11 @@
       <c r="H217">
         <v>42224.055226107601</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="5">
         <v>0.41888943676694101</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>44</v>
       </c>
@@ -7259,11 +7168,11 @@
       <c r="H218">
         <v>4276716.9778279597</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="5">
         <v>42.427747795912303</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -7288,11 +7197,11 @@
       <c r="H219">
         <v>4084775.1528987698</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="5">
         <v>40.523563024789397</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>44</v>
       </c>
@@ -7311,17 +7220,17 @@
       <c r="F220" t="s">
         <v>15</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="7">
         <v>8413.8973164766394</v>
       </c>
-      <c r="H220">
+      <c r="H220" s="7">
         <v>235589.12486134499</v>
       </c>
-      <c r="I220">
+      <c r="I220" s="7">
         <v>2.33719369902128</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>44</v>
       </c>
@@ -7340,17 +7249,17 @@
       <c r="F221" t="s">
         <v>16</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="7">
         <v>41150.345941719403</v>
       </c>
-      <c r="H221">
+      <c r="H221" s="7">
         <v>1152209.6863681399</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="7">
         <v>11.4306516504776</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>44</v>
       </c>
@@ -7369,17 +7278,17 @@
       <c r="F222" t="s">
         <v>17</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="7">
         <v>58053.6800389376</v>
       </c>
-      <c r="H222">
+      <c r="H222" s="7">
         <v>1625503.04109025</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="7">
         <v>16.126022233038199</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>44</v>
       </c>
@@ -7398,17 +7307,17 @@
       <c r="F223" t="s">
         <v>18</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="7">
         <v>5380.8961648566801</v>
       </c>
-      <c r="H223">
+      <c r="H223" s="7">
         <v>150665.092615987</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="7">
         <v>1.49469337912685</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>44</v>
       </c>
@@ -7433,11 +7342,11 @@
       <c r="H224">
         <v>0</v>
       </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I224" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>44</v>
       </c>
@@ -7462,11 +7371,11 @@
       <c r="H225">
         <v>150000</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="5">
         <v>1.4880952380952299</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>44</v>
       </c>
@@ -7491,11 +7400,11 @@
       <c r="H226">
         <v>0</v>
       </c>
-      <c r="I226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I226" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>44</v>
       </c>
@@ -7520,11 +7429,11 @@
       <c r="H227">
         <v>0</v>
       </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I227" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>44</v>
       </c>
@@ -7549,7 +7458,7 @@
       <c r="H228">
         <v>0</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7572,13 +7481,13 @@
       <c r="F229" t="s">
         <v>15</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="9">
         <v>15939.7749065055</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="9">
         <v>446313.69738215499</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="9">
         <v>4.4277152518070899</v>
       </c>
     </row>
@@ -7601,13 +7510,13 @@
       <c r="F230" t="s">
         <v>20</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="9">
         <v>507.58928571428498</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="9">
         <v>14212.5</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="9">
         <v>0.140997023809523</v>
       </c>
     </row>
@@ -7630,13 +7539,13 @@
       <c r="F231" t="s">
         <v>16</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="9">
         <v>85921.130323546604</v>
       </c>
-      <c r="H231">
+      <c r="H231" s="9">
         <v>2405791.6490592998</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="9">
         <v>23.866980645429599</v>
       </c>
     </row>
@@ -7659,13 +7568,13 @@
       <c r="F232" t="s">
         <v>18</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="9">
         <v>32118.214285714199</v>
       </c>
-      <c r="H232">
+      <c r="H232" s="9">
         <v>899310</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="9">
         <v>8.9217261904761909</v>
       </c>
     </row>
@@ -7688,13 +7597,13 @@
       <c r="F233" t="s">
         <v>19</v>
       </c>
-      <c r="G233">
-        <v>0</v>
-      </c>
-      <c r="H233">
-        <v>0</v>
-      </c>
-      <c r="I233">
+      <c r="G233" s="9">
+        <v>0</v>
+      </c>
+      <c r="H233" s="9">
+        <v>0</v>
+      </c>
+      <c r="I233" s="9">
         <v>0</v>
       </c>
     </row>
@@ -7717,17 +7626,17 @@
       <c r="F234" t="s">
         <v>17</v>
       </c>
-      <c r="G234">
-        <v>0</v>
-      </c>
-      <c r="H234">
-        <v>0</v>
-      </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G234" s="9">
+        <v>0</v>
+      </c>
+      <c r="H234" s="9">
+        <v>0</v>
+      </c>
+      <c r="I234" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>44</v>
       </c>
@@ -7752,11 +7661,11 @@
       <c r="H235">
         <v>152275.39942699301</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="5">
         <v>1.5106686451090601</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>44</v>
       </c>
@@ -7781,11 +7690,11 @@
       <c r="H236">
         <v>410026.29478222202</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="5">
         <v>4.0677211783950602</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>44</v>
       </c>
@@ -7810,11 +7719,11 @@
       <c r="H237">
         <v>1543295.59953299</v>
       </c>
-      <c r="I237">
+      <c r="I237" s="5">
         <v>15.310472217589201</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>44</v>
       </c>
@@ -7839,11 +7748,11 @@
       <c r="H238">
         <v>271920.35611962999</v>
       </c>
-      <c r="I238">
+      <c r="I238" s="5">
         <v>2.6976225805518901</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>44</v>
       </c>
@@ -7868,11 +7777,11 @@
       <c r="H239">
         <v>3540403.0366775901</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="5">
         <v>35.123045998785599</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>44</v>
       </c>
@@ -7897,11 +7806,11 @@
       <c r="H240">
         <v>1681353</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="5">
         <v>16.6800892857142</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>44</v>
       </c>
@@ -7926,12 +7835,18 @@
       <c r="H241">
         <v>841483</v>
       </c>
-      <c r="I241">
+      <c r="I241" s="5">
         <v>8.3480456349206307</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I241" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}"/>
+  <autoFilter ref="A1:I241" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="ErectionCost"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project_input_template/landbosse-expected-validation-data.xlsx
+++ b/project_input_template/landbosse-expected-validation-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhaskar/Desktop/Projects/public_landbosse/project_input_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhaskar/Desktop/Projects/public_landbosse/LandBOSSE/project_input_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6B9C3-E773-BE4F-8203-0042A9698DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF7B4B-A205-5C49-AEFD-94CF624E0689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27260" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27260" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_by_module_type_operation" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F249" sqref="F249"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1745,14 +1745,14 @@
         <v>19</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" ref="G30:G55" si="0">H38</f>
+        <f t="shared" ref="G38:G55" si="0">H38</f>
         <v>0</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" ref="I30:I55" si="1">H38/C38/1000</f>
+        <f t="shared" ref="I38:I55" si="1">H38/C38/1000</f>
         <v>0</v>
       </c>
       <c r="J38"/>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2085,23 +2085,21 @@
       <c r="E49" t="s">
         <v>13</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="2">
-        <f t="shared" si="0"/>
-        <v>7070.6972452158416</v>
-      </c>
-      <c r="H49" s="2">
-        <v>7070.6972452158416</v>
+      <c r="G49" s="5">
+        <v>6931.8389218436796</v>
+      </c>
+      <c r="H49" s="5">
+        <v>6931.8389218436796</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="1"/>
-        <v>4.7137981634772279</v>
+        <v>4.6212259478957902</v>
       </c>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2117,23 +2115,21 @@
       <c r="E50" t="s">
         <v>13</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="2">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="H50" s="2">
-        <v>240</v>
+      <c r="G50" s="5">
+        <v>169.5</v>
+      </c>
+      <c r="H50" s="5">
+        <v>169.5</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16</v>
+        <v>0.113</v>
       </c>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2149,23 +2145,21 @@
       <c r="E51" t="s">
         <v>13</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="2">
-        <f t="shared" si="0"/>
-        <v>35349.322678682678</v>
-      </c>
-      <c r="H51" s="2">
-        <v>35349.322678682678</v>
+      <c r="G51" s="5">
+        <v>49441.813382952401</v>
+      </c>
+      <c r="H51" s="5">
+        <v>49441.813382952401</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="1"/>
-        <v>23.566215119121786</v>
+        <v>32.961208921968201</v>
       </c>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2181,23 +2175,21 @@
       <c r="E52" t="s">
         <v>13</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="2">
-        <f t="shared" si="0"/>
-        <v>416000</v>
-      </c>
-      <c r="H52" s="2">
-        <v>416000</v>
+      <c r="G52" s="5">
+        <v>400956</v>
+      </c>
+      <c r="H52" s="5">
+        <v>400956</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="1"/>
-        <v>277.33333333333331</v>
+        <v>267.30399999999997</v>
       </c>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -2213,23 +2205,21 @@
       <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
         <v>0</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -2245,18 +2235,16 @@
       <c r="E54" t="s">
         <v>13</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
         <v>0</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J54" s="4"/>
@@ -2293,7 +2281,7 @@
       </c>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2322,7 +2310,7 @@
         <v>2.0503571322296299</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -2351,7 +2339,7 @@
         <v>30.571233379056402</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -2380,7 +2368,7 @@
         <v>37.153541440447199</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -2574,14 +2562,14 @@
         <v>19</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" ref="G57:G108" si="2">H65/B65</f>
+        <f t="shared" ref="G65:G102" si="2">H65/B65</f>
         <v>0</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" ref="I57:I108" si="3">G65/1500</f>
+        <f t="shared" ref="I65:I102" si="3">G65/1500</f>
         <v>0</v>
       </c>
     </row>
@@ -2887,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -2903,22 +2891,20 @@
       <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="2">
-        <f t="shared" si="2"/>
-        <v>7070.6972452158416</v>
-      </c>
-      <c r="H76" s="2">
-        <v>35353.486226079207</v>
+      <c r="G76" s="5">
+        <v>6931.8389218436796</v>
+      </c>
+      <c r="H76" s="5">
+        <v>34659.194609218401</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="3"/>
-        <v>4.7137981634772279</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>4.6212259478957902</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -2934,22 +2920,20 @@
       <c r="E77" t="s">
         <v>13</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G77" s="2">
-        <f t="shared" si="2"/>
-        <v>321</v>
-      </c>
-      <c r="H77" s="2">
-        <v>1605</v>
+      <c r="G77" s="5">
+        <v>263.7</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1318.5</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="3"/>
-        <v>0.214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.17580000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -2965,22 +2949,20 @@
       <c r="E78" t="s">
         <v>13</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G78" s="2">
-        <f t="shared" si="2"/>
-        <v>36443.72267868268</v>
-      </c>
-      <c r="H78" s="2">
-        <v>182218.6133934134</v>
+      <c r="G78" s="5">
+        <v>51145.367149619</v>
+      </c>
+      <c r="H78" s="5">
+        <v>255726.83574809501</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="3"/>
-        <v>24.295815119121787</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>34.096911433079399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -2996,22 +2978,20 @@
       <c r="E79" t="s">
         <v>13</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="2">
-        <f t="shared" si="2"/>
-        <v>83200</v>
-      </c>
-      <c r="H79" s="2">
-        <v>416000</v>
+      <c r="G79" s="5">
+        <v>80191.199999999997</v>
+      </c>
+      <c r="H79" s="5">
+        <v>400956</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="3"/>
-        <v>55.466666666666669</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>53.460799999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -3027,22 +3007,20 @@
       <c r="E80" t="s">
         <v>13</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="2">
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
         <v>0</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -3058,18 +3036,16 @@
       <c r="E81" t="s">
         <v>13</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="2">
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5">
         <v>0</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3104,7 +3080,7 @@
         <v>202.56666666666666</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -3134,7 +3110,7 @@
       </c>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -3164,7 +3140,7 @@
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -3194,7 +3170,7 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3718,7 +3694,7 @@
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -3734,23 +3710,21 @@
       <c r="E103" t="s">
         <v>13</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G103" s="2">
-        <f t="shared" si="2"/>
-        <v>7070.6972452158416</v>
-      </c>
-      <c r="H103" s="2">
-        <v>70706.972452158414</v>
+      <c r="G103" s="5">
+        <v>6931.8389218436796</v>
+      </c>
+      <c r="H103" s="5">
+        <v>69318.389218436801</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="3"/>
-        <v>4.7137981634772279</v>
+        <v>4.6212259478957902</v>
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -3766,23 +3740,21 @@
       <c r="E104" t="s">
         <v>13</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="2">
-        <f t="shared" si="2"/>
-        <v>330</v>
-      </c>
-      <c r="H104" s="2">
-        <v>3300</v>
+      <c r="G104" s="5">
+        <v>293.85000000000002</v>
+      </c>
+      <c r="H104" s="5">
+        <v>2938.5</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="3"/>
-        <v>0.22</v>
+        <v>0.19589999999999999</v>
       </c>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -3798,23 +3770,21 @@
       <c r="E105" t="s">
         <v>13</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G105" s="2">
-        <f t="shared" si="2"/>
-        <v>36501.322678682678</v>
-      </c>
-      <c r="H105" s="2">
-        <v>365013.2267868268</v>
+      <c r="G105" s="5">
+        <v>51651.967149618999</v>
+      </c>
+      <c r="H105" s="5">
+        <v>516519.67149619001</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="3"/>
-        <v>24.334215119121787</v>
+        <v>34.434644766412703</v>
       </c>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -3830,23 +3800,21 @@
       <c r="E106" t="s">
         <v>13</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G106" s="2">
-        <f t="shared" si="2"/>
-        <v>41600</v>
-      </c>
-      <c r="H106" s="2">
-        <v>416000</v>
+      <c r="G106" s="5">
+        <v>40095.599999999999</v>
+      </c>
+      <c r="H106" s="5">
+        <v>400956</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="3"/>
-        <v>27.733333333333334</v>
+        <v>26.730399999999999</v>
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -3862,23 +3830,21 @@
       <c r="E107" t="s">
         <v>13</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="2">
+      <c r="G107" s="5">
+        <v>0</v>
+      </c>
+      <c r="H107" s="5">
         <v>0</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -3894,18 +3860,16 @@
       <c r="E108" t="s">
         <v>13</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G108" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="2">
+      <c r="G108" s="5">
+        <v>0</v>
+      </c>
+      <c r="H108" s="5">
         <v>0</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J108"/>
@@ -4542,7 +4506,7 @@
       </c>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -4561,18 +4525,18 @@
       <c r="F130" t="s">
         <v>15</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="9">
         <v>7489.11492789153</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="9">
         <v>748911.49278915301</v>
       </c>
-      <c r="I130" s="5">
+      <c r="I130" s="9">
         <v>4.9927432852610201</v>
       </c>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>41</v>
       </c>
@@ -4591,18 +4555,18 @@
       <c r="F131" t="s">
         <v>20</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="9">
         <v>288.255</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="9">
         <v>28825.5</v>
       </c>
-      <c r="I131" s="5">
+      <c r="I131" s="9">
         <v>0.19217000000000001</v>
       </c>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -4621,18 +4585,18 @@
       <c r="F132" t="s">
         <v>16</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="9">
         <v>51346.538032382698</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="9">
         <v>5134653.8032382699</v>
       </c>
-      <c r="I132" s="5">
+      <c r="I132" s="9">
         <v>34.231025354921798</v>
       </c>
       <c r="J132"/>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>41</v>
       </c>
@@ -4651,18 +4615,18 @@
       <c r="F133" t="s">
         <v>18</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="9">
         <v>8993.1</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="9">
         <v>899310</v>
       </c>
-      <c r="I133" s="5">
+      <c r="I133" s="9">
         <v>5.9954000000000001</v>
       </c>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -4681,18 +4645,18 @@
       <c r="F134" t="s">
         <v>19</v>
       </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134" s="5">
+      <c r="G134" s="9">
+        <v>0</v>
+      </c>
+      <c r="H134" s="9">
+        <v>0</v>
+      </c>
+      <c r="I134" s="9">
         <v>0</v>
       </c>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -4711,13 +4675,13 @@
       <c r="F135" t="s">
         <v>17</v>
       </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135" s="5">
+      <c r="G135" s="9">
+        <v>0</v>
+      </c>
+      <c r="H135" s="9">
+        <v>0</v>
+      </c>
+      <c r="I135" s="9">
         <v>0</v>
       </c>
       <c r="J135"/>
@@ -5532,7 +5496,7 @@
       </c>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -5551,18 +5515,18 @@
       <c r="F163" t="s">
         <v>15</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="9">
         <v>9442.9461961058605</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="9">
         <v>566576.77176635095</v>
       </c>
-      <c r="I163" s="5">
+      <c r="I163" s="9">
         <v>3.7771784784423401</v>
       </c>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -5581,18 +5545,18 @@
       <c r="F164" t="s">
         <v>20</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="9">
         <v>304.5</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="9">
         <v>18270</v>
       </c>
-      <c r="I164" s="5">
+      <c r="I164" s="9">
         <v>0.12180000000000001</v>
       </c>
       <c r="J164"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -5611,18 +5575,18 @@
       <c r="F165" t="s">
         <v>16</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="9">
         <v>54137.465077806097</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="9">
         <v>3248247.9046683698</v>
       </c>
-      <c r="I165" s="5">
+      <c r="I165" s="9">
         <v>21.654986031122402</v>
       </c>
       <c r="J165"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -5641,18 +5605,18 @@
       <c r="F166" t="s">
         <v>18</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="9">
         <v>10195.5666666666</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="9">
         <v>611734</v>
       </c>
-      <c r="I166" s="5">
+      <c r="I166" s="9">
         <v>4.0782266666666596</v>
       </c>
       <c r="J166"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -5671,18 +5635,18 @@
       <c r="F167" t="s">
         <v>19</v>
       </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
-      </c>
-      <c r="I167" s="5">
+      <c r="G167" s="9">
+        <v>0</v>
+      </c>
+      <c r="H167" s="9">
+        <v>0</v>
+      </c>
+      <c r="I167" s="9">
         <v>0</v>
       </c>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>42</v>
       </c>
@@ -5701,13 +5665,13 @@
       <c r="F168" t="s">
         <v>17</v>
       </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
-      <c r="I168" s="5">
+      <c r="G168" s="9">
+        <v>0</v>
+      </c>
+      <c r="H168" s="9">
+        <v>0</v>
+      </c>
+      <c r="I168" s="9">
         <v>0</v>
       </c>
       <c r="J168"/>
@@ -6522,7 +6486,7 @@
       </c>
       <c r="J195"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>43</v>
       </c>
@@ -6541,18 +6505,18 @@
       <c r="F196" t="s">
         <v>15</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="9">
         <v>8523.1960817585805</v>
       </c>
-      <c r="H196">
+      <c r="H196" s="9">
         <v>238649.49028924</v>
       </c>
-      <c r="I196" s="5">
+      <c r="I196" s="9">
         <v>2.36755446715516</v>
       </c>
       <c r="J196"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>43</v>
       </c>
@@ -6571,18 +6535,18 @@
       <c r="F197" t="s">
         <v>20</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="9">
         <v>345.375</v>
       </c>
-      <c r="H197">
+      <c r="H197" s="9">
         <v>9670.5</v>
       </c>
-      <c r="I197" s="5">
+      <c r="I197" s="9">
         <v>9.5937499999999995E-2</v>
       </c>
       <c r="J197"/>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>43</v>
       </c>
@@ -6601,18 +6565,18 @@
       <c r="F198" t="s">
         <v>16</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="9">
         <v>73765.537350567</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="9">
         <v>2065435.0458158699</v>
       </c>
-      <c r="I198" s="5">
+      <c r="I198" s="9">
         <v>20.490427041824098</v>
       </c>
       <c r="J198"/>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>43</v>
       </c>
@@ -6631,18 +6595,18 @@
       <c r="F199" t="s">
         <v>18</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="9">
         <v>19227.6428571428</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="9">
         <v>538374</v>
       </c>
-      <c r="I199" s="5">
+      <c r="I199" s="9">
         <v>5.3410119047619</v>
       </c>
       <c r="J199"/>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>43</v>
       </c>
@@ -6661,18 +6625,18 @@
       <c r="F200" t="s">
         <v>19</v>
       </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <v>0</v>
-      </c>
-      <c r="I200" s="5">
+      <c r="G200" s="9">
+        <v>0</v>
+      </c>
+      <c r="H200" s="9">
+        <v>0</v>
+      </c>
+      <c r="I200" s="9">
         <v>0</v>
       </c>
       <c r="J200"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>43</v>
       </c>
@@ -6691,13 +6655,13 @@
       <c r="F201" t="s">
         <v>17</v>
       </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>0</v>
-      </c>
-      <c r="I201" s="5">
+      <c r="G201" s="9">
+        <v>0</v>
+      </c>
+      <c r="H201" s="9">
+        <v>0</v>
+      </c>
+      <c r="I201" s="9">
         <v>0</v>
       </c>
       <c r="J201"/>
@@ -7498,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>44</v>
       </c>
@@ -7517,17 +7481,17 @@
       <c r="F229" t="s">
         <v>15</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="9">
         <v>15939.7749065055</v>
       </c>
-      <c r="H229">
+      <c r="H229" s="9">
         <v>446313.69738215499</v>
       </c>
-      <c r="I229" s="5">
+      <c r="I229" s="9">
         <v>4.4277152518070899</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>44</v>
       </c>
@@ -7546,17 +7510,17 @@
       <c r="F230" t="s">
         <v>20</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="9">
         <v>507.58928571428498</v>
       </c>
-      <c r="H230">
+      <c r="H230" s="9">
         <v>14212.5</v>
       </c>
-      <c r="I230" s="5">
+      <c r="I230" s="9">
         <v>0.140997023809523</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>44</v>
       </c>
@@ -7575,17 +7539,17 @@
       <c r="F231" t="s">
         <v>16</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="9">
         <v>85921.130323546604</v>
       </c>
-      <c r="H231">
+      <c r="H231" s="9">
         <v>2405791.6490592998</v>
       </c>
-      <c r="I231" s="5">
+      <c r="I231" s="9">
         <v>23.866980645429599</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>44</v>
       </c>
@@ -7604,17 +7568,17 @@
       <c r="F232" t="s">
         <v>18</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="9">
         <v>32118.214285714199</v>
       </c>
-      <c r="H232">
+      <c r="H232" s="9">
         <v>899310</v>
       </c>
-      <c r="I232" s="5">
+      <c r="I232" s="9">
         <v>8.9217261904761909</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>44</v>
       </c>
@@ -7633,17 +7597,17 @@
       <c r="F233" t="s">
         <v>19</v>
       </c>
-      <c r="G233">
-        <v>0</v>
-      </c>
-      <c r="H233">
-        <v>0</v>
-      </c>
-      <c r="I233" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G233" s="9">
+        <v>0</v>
+      </c>
+      <c r="H233" s="9">
+        <v>0</v>
+      </c>
+      <c r="I233" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>44</v>
       </c>
@@ -7662,13 +7626,13 @@
       <c r="F234" t="s">
         <v>17</v>
       </c>
-      <c r="G234">
-        <v>0</v>
-      </c>
-      <c r="H234">
-        <v>0</v>
-      </c>
-      <c r="I234" s="5">
+      <c r="G234" s="9">
+        <v>0</v>
+      </c>
+      <c r="H234" s="9">
+        <v>0</v>
+      </c>
+      <c r="I234" s="9">
         <v>0</v>
       </c>
     </row>
@@ -7877,16 +7841,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I241" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ge15_dist_01"/>
-        <filter val="ge15_dist_05"/>
-        <filter val="ge15_dist_10"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="FoundationCost"/>
+        <filter val="ErectionCost"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/project_input_template/landbosse-expected-validation-data.xlsx
+++ b/project_input_template/landbosse-expected-validation-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhaskar/Desktop/Projects/public_landbosse/LandBOSSE/project_input_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF7B4B-A205-5C49-AEFD-94CF624E0689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847800AC-8570-0244-B7B4-5ABEB577BCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27260" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,8 +598,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K246" sqref="K246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>37.153541440447199</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>4.6212259478957902</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0.17580000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>34.096911433079399</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>53.460799999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -4016,10 +4016,10 @@
         <v>18</v>
       </c>
       <c r="G113">
-        <v>9558.2447726232804</v>
+        <v>4779.1223863116402</v>
       </c>
       <c r="H113">
-        <v>955824.47726232803</v>
+        <v>477912.23863116401</v>
       </c>
       <c r="I113" s="5">
         <v>6.3721631817488502</v>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>41</v>
       </c>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="J132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>41</v>
       </c>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -5006,10 +5006,10 @@
         <v>18</v>
       </c>
       <c r="G146">
-        <v>13767.1137355049</v>
+        <v>6883.5568677524498</v>
       </c>
       <c r="H146">
-        <v>826026.82413029601</v>
+        <v>413013.412065148</v>
       </c>
       <c r="I146" s="5">
         <v>5.5068454942019702</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="J164"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="J165"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="J166"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>42</v>
       </c>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="J178"/>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -5996,10 +5996,10 @@
         <v>18</v>
       </c>
       <c r="G179">
-        <v>22594.5166764401</v>
+        <v>11297.25833822005</v>
       </c>
       <c r="H179">
-        <v>632646.46694032406</v>
+        <v>316323.23347016203</v>
       </c>
       <c r="I179" s="5">
         <v>6.2762546323444903</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="J195"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>43</v>
       </c>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="J196"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>43</v>
       </c>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="J197"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>43</v>
       </c>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="J198"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>43</v>
       </c>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="J199"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>43</v>
       </c>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="J200"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>43</v>
       </c>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="J211"/>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>44</v>
       </c>
@@ -6986,10 +6986,10 @@
         <v>18</v>
       </c>
       <c r="G212">
-        <v>34095.177724386704</v>
+        <v>17047.588862193352</v>
       </c>
       <c r="H212">
-        <v>954664.97628282697</v>
+        <v>477332.48814141349</v>
       </c>
       <c r="I212" s="5">
         <v>9.4708827012185299</v>
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>44</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>4.4277152518070899</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>44</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0.140997023809523</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>44</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>23.866980645429599</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>44</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>8.9217261904761909</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>44</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>44</v>
       </c>
@@ -7843,7 +7843,12 @@
   <autoFilter ref="A1:I241" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}">
     <filterColumn colId="3">
       <filters>
-        <filter val="ErectionCost"/>
+        <filter val="FoundationCost"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Mobilization"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/project_input_template/landbosse-expected-validation-data.xlsx
+++ b/project_input_template/landbosse-expected-validation-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhaskar/Desktop/Projects/public_landbosse/LandBOSSE/project_input_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847800AC-8570-0244-B7B4-5ABEB577BCCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B5C786-07FF-1943-BDAA-3185A2792506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27260" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,8 +598,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K246" sqref="K246"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K139" sqref="K139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,7 +735,7 @@
       </c>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>37.153541440447199</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -4705,18 +4705,18 @@
       <c r="F136" t="s">
         <v>24</v>
       </c>
-      <c r="G136">
-        <v>1910.48209148397</v>
-      </c>
-      <c r="H136">
-        <v>191048.209148397</v>
-      </c>
-      <c r="I136" s="5">
-        <v>1.27365472765598</v>
+      <c r="G136" s="9">
+        <v>1883.71900612063</v>
+      </c>
+      <c r="H136" s="9">
+        <v>188371.90061206301</v>
+      </c>
+      <c r="I136" s="9">
+        <v>1.25581267074708</v>
       </c>
       <c r="J136"/>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -4735,18 +4735,18 @@
       <c r="F137" t="s">
         <v>22</v>
       </c>
-      <c r="G137">
-        <v>4102.8138499771203</v>
-      </c>
-      <c r="H137">
-        <v>410281.38499771198</v>
-      </c>
-      <c r="I137" s="5">
-        <v>2.7352092333180802</v>
+      <c r="G137" s="9">
+        <v>4007.2314022508899</v>
+      </c>
+      <c r="H137" s="9">
+        <v>400723.14022508898</v>
+      </c>
+      <c r="I137" s="9">
+        <v>2.6714876015005902</v>
       </c>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -4765,18 +4765,18 @@
       <c r="F138" t="s">
         <v>26</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="9">
         <v>18877.634920373399</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="9">
         <v>1887763.4920373401</v>
       </c>
-      <c r="I138" s="5">
+      <c r="I138" s="9">
         <v>12.5850899469156</v>
       </c>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -4795,18 +4795,18 @@
       <c r="F139" t="s">
         <v>21</v>
       </c>
-      <c r="G139">
-        <v>3411.5751633642399</v>
-      </c>
-      <c r="H139">
-        <v>341157.51633642399</v>
-      </c>
-      <c r="I139" s="5">
-        <v>2.2743834422428302</v>
+      <c r="G139" s="9">
+        <v>3363.7839395011201</v>
+      </c>
+      <c r="H139" s="9">
+        <v>336378.39395011298</v>
+      </c>
+      <c r="I139" s="9">
+        <v>2.2425226263340798</v>
       </c>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>41</v>
       </c>
@@ -4825,18 +4825,18 @@
       <c r="F140" t="s">
         <v>25</v>
       </c>
-      <c r="G140">
-        <v>44418.708627002401</v>
-      </c>
-      <c r="H140">
-        <v>4441870.8627002398</v>
-      </c>
-      <c r="I140" s="5">
-        <v>29.612472418001602</v>
+      <c r="G140" s="9">
+        <v>43796.466892304699</v>
+      </c>
+      <c r="H140" s="9">
+        <v>4379646.68923047</v>
+      </c>
+      <c r="I140" s="9">
+        <v>29.1976445948698</v>
       </c>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -4855,18 +4855,18 @@
       <c r="F141" t="s">
         <v>23</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="9">
         <v>20713.25</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="9">
         <v>2071325</v>
       </c>
-      <c r="I141" s="5">
+      <c r="I141" s="9">
         <v>13.8088333333333</v>
       </c>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>41</v>
       </c>
@@ -4885,13 +4885,13 @@
       <c r="F142" t="s">
         <v>27</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="9">
         <v>13067.4835</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="9">
         <v>1306748.3500000001</v>
       </c>
-      <c r="I142" s="5">
+      <c r="I142" s="9">
         <v>8.71165566666666</v>
       </c>
       <c r="J142"/>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>42</v>
       </c>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="J168"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>42</v>
       </c>
@@ -5695,18 +5695,18 @@
       <c r="F169" t="s">
         <v>24</v>
       </c>
-      <c r="G169">
-        <v>2715.9001117631901</v>
-      </c>
-      <c r="H169">
-        <v>162954.00670579099</v>
-      </c>
-      <c r="I169" s="5">
-        <v>1.0863600447052699</v>
+      <c r="G169" s="9">
+        <v>2677.35219330378</v>
+      </c>
+      <c r="H169" s="9">
+        <v>160641.131598226</v>
+      </c>
+      <c r="I169" s="9">
+        <v>1.0709408773215101</v>
       </c>
       <c r="J169"/>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>42</v>
       </c>
@@ -5725,18 +5725,18 @@
       <c r="F170" t="s">
         <v>22</v>
       </c>
-      <c r="G170">
-        <v>6362.0983551444197</v>
-      </c>
-      <c r="H170">
-        <v>381725.90130866499</v>
-      </c>
-      <c r="I170" s="5">
-        <v>2.54483934205776</v>
+      <c r="G170" s="9">
+        <v>6224.4272177893599</v>
+      </c>
+      <c r="H170" s="9">
+        <v>373465.63306736201</v>
+      </c>
+      <c r="I170" s="9">
+        <v>2.48977088711574</v>
       </c>
       <c r="J170"/>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -5755,18 +5755,18 @@
       <c r="F171" t="s">
         <v>26</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="9">
         <v>27236.217376004999</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="9">
         <v>1634173.0425603001</v>
       </c>
-      <c r="I171" s="5">
+      <c r="I171" s="9">
         <v>10.894486950401999</v>
       </c>
       <c r="J171"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -5785,18 +5785,18 @@
       <c r="F172" t="s">
         <v>21</v>
       </c>
-      <c r="G172">
-        <v>4849.8216281485602</v>
-      </c>
-      <c r="H172">
-        <v>290989.29768891301</v>
-      </c>
-      <c r="I172" s="5">
-        <v>1.93992865125942</v>
+      <c r="G172" s="9">
+        <v>4780.9860594710399</v>
+      </c>
+      <c r="H172" s="9">
+        <v>286859.16356826201</v>
+      </c>
+      <c r="I172" s="9">
+        <v>1.9123944237884101</v>
       </c>
       <c r="J172"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>42</v>
       </c>
@@ -5815,18 +5815,18 @@
       <c r="F173" t="s">
         <v>25</v>
       </c>
-      <c r="G173">
-        <v>63144.677598494301</v>
-      </c>
-      <c r="H173">
-        <v>3788680.65590965</v>
-      </c>
-      <c r="I173" s="5">
-        <v>25.257871039397699</v>
+      <c r="G173" s="9">
+        <v>62248.438494312897</v>
+      </c>
+      <c r="H173" s="9">
+        <v>3734906.30965877</v>
+      </c>
+      <c r="I173" s="9">
+        <v>24.899375397725098</v>
       </c>
       <c r="J173"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -5845,18 +5845,18 @@
       <c r="F174" t="s">
         <v>23</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="9">
         <v>29169.75</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="9">
         <v>1750185</v>
       </c>
-      <c r="I174" s="5">
+      <c r="I174" s="9">
         <v>11.667899999999999</v>
       </c>
       <c r="J174"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -5875,13 +5875,13 @@
       <c r="F175" t="s">
         <v>27</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="9">
         <v>18172.713366666601</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="9">
         <v>1090362.8019999999</v>
       </c>
-      <c r="I175" s="5">
+      <c r="I175" s="9">
         <v>7.2690853466666603</v>
       </c>
       <c r="J175"/>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="J178"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="J201"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>43</v>
       </c>
@@ -6685,18 +6685,18 @@
       <c r="F202" t="s">
         <v>24</v>
       </c>
-      <c r="G202">
-        <v>4547.2666397718403</v>
-      </c>
-      <c r="H202">
-        <v>127323.465913611</v>
-      </c>
-      <c r="I202" s="5">
-        <v>1.2631296221588399</v>
+      <c r="G202" s="9">
+        <v>4484.0019930777999</v>
+      </c>
+      <c r="H202" s="9">
+        <v>125552.055806178</v>
+      </c>
+      <c r="I202" s="9">
+        <v>1.2455561091882801</v>
       </c>
       <c r="J202"/>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -6715,18 +6715,18 @@
       <c r="F203" t="s">
         <v>22</v>
       </c>
-      <c r="G203">
-        <v>12113.650811673901</v>
-      </c>
-      <c r="H203">
-        <v>339182.22272687103</v>
-      </c>
-      <c r="I203" s="5">
-        <v>3.36490300324277</v>
+      <c r="G203" s="9">
+        <v>11887.7056449095</v>
+      </c>
+      <c r="H203" s="9">
+        <v>332855.75805746799</v>
+      </c>
+      <c r="I203" s="9">
+        <v>3.3021404569193198</v>
       </c>
       <c r="J203"/>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>43</v>
       </c>
@@ -6745,18 +6745,18 @@
       <c r="F204" t="s">
         <v>26</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="9">
         <v>55117.699983321399</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="9">
         <v>1543295.59953299</v>
       </c>
-      <c r="I204" s="5">
+      <c r="I204" s="9">
         <v>15.310472217589201</v>
       </c>
       <c r="J204"/>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>43</v>
       </c>
@@ -6775,18 +6775,18 @@
       <c r="F205" t="s">
         <v>21</v>
       </c>
-      <c r="G205">
-        <v>8120.1189995925697</v>
-      </c>
-      <c r="H205">
-        <v>227363.33198859199</v>
-      </c>
-      <c r="I205" s="5">
-        <v>2.25558861099793</v>
+      <c r="G205" s="9">
+        <v>8007.1464162103703</v>
+      </c>
+      <c r="H205" s="9">
+        <v>224200.09965389001</v>
+      </c>
+      <c r="I205" s="9">
+        <v>2.2242073378362099</v>
       </c>
       <c r="J205"/>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>43</v>
       </c>
@@ -6805,18 +6805,18 @@
       <c r="F206" t="s">
         <v>25</v>
       </c>
-      <c r="G206">
-        <v>105723.949374695</v>
-      </c>
-      <c r="H206">
-        <v>2960270.5824914598</v>
-      </c>
-      <c r="I206" s="5">
-        <v>29.367763715193099</v>
+      <c r="G206" s="9">
+        <v>104253.046339059</v>
+      </c>
+      <c r="H206" s="9">
+        <v>2919085.2974936501</v>
+      </c>
+      <c r="I206" s="9">
+        <v>28.959179538627499</v>
       </c>
       <c r="J206"/>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -6835,18 +6835,18 @@
       <c r="F207" t="s">
         <v>23</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="9">
         <v>52491.1785714285</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="9">
         <v>1469753</v>
       </c>
-      <c r="I207" s="5">
+      <c r="I207" s="9">
         <v>14.5808829365079</v>
       </c>
       <c r="J207"/>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>43</v>
       </c>
@@ -6865,13 +6865,13 @@
       <c r="F208" t="s">
         <v>27</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="9">
         <v>30052.964285714199</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="9">
         <v>841483</v>
       </c>
-      <c r="I208" s="5">
+      <c r="I208" s="9">
         <v>8.3480456349206307</v>
       </c>
       <c r="J208"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="J211"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>44</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>44</v>
       </c>
@@ -7655,17 +7655,17 @@
       <c r="F235" t="s">
         <v>24</v>
       </c>
-      <c r="G235">
-        <v>5438.4071223926103</v>
-      </c>
-      <c r="H235">
-        <v>152275.39942699301</v>
-      </c>
-      <c r="I235" s="5">
-        <v>1.5106686451090601</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G235" s="9">
+        <v>5342.9406247643301</v>
+      </c>
+      <c r="H235" s="9">
+        <v>149602.33749340099</v>
+      </c>
+      <c r="I235" s="9">
+        <v>1.4841501735456399</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>44</v>
       </c>
@@ -7684,17 +7684,17 @@
       <c r="F236" t="s">
         <v>22</v>
       </c>
-      <c r="G236">
-        <v>14643.796242222201</v>
-      </c>
-      <c r="H236">
-        <v>410026.29478222202</v>
-      </c>
-      <c r="I236" s="5">
-        <v>4.0677211783950602</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G236" s="9">
+        <v>14302.8444649783</v>
+      </c>
+      <c r="H236" s="9">
+        <v>400479.64501939301</v>
+      </c>
+      <c r="I236" s="9">
+        <v>3.9730123513828701</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>44</v>
       </c>
@@ -7713,17 +7713,17 @@
       <c r="F237" t="s">
         <v>26</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="9">
         <v>55117.699983321399</v>
       </c>
-      <c r="H237">
+      <c r="H237" s="9">
         <v>1543295.59953299</v>
       </c>
-      <c r="I237" s="5">
+      <c r="I237" s="9">
         <v>15.310472217589201</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>44</v>
       </c>
@@ -7742,17 +7742,17 @@
       <c r="F238" t="s">
         <v>21</v>
       </c>
-      <c r="G238">
-        <v>9711.4412899868094</v>
-      </c>
-      <c r="H238">
-        <v>271920.35611962999</v>
-      </c>
-      <c r="I238" s="5">
-        <v>2.6976225805518901</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G238" s="9">
+        <v>9540.9654013648797</v>
+      </c>
+      <c r="H238" s="9">
+        <v>267147.03123821598</v>
+      </c>
+      <c r="I238" s="9">
+        <v>2.6502681670457999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>44</v>
       </c>
@@ -7771,17 +7771,17 @@
       <c r="F239" t="s">
         <v>25</v>
       </c>
-      <c r="G239">
-        <v>126442.965595628</v>
-      </c>
-      <c r="H239">
-        <v>3540403.0366775901</v>
-      </c>
-      <c r="I239" s="5">
-        <v>35.123045998785599</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G239" s="9">
+        <v>124223.36952577</v>
+      </c>
+      <c r="H239" s="9">
+        <v>3478254.3467215798</v>
+      </c>
+      <c r="I239" s="9">
+        <v>34.506491534936302</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>44</v>
       </c>
@@ -7800,17 +7800,17 @@
       <c r="F240" t="s">
         <v>23</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="9">
         <v>60048.321428571398</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="9">
         <v>1681353</v>
       </c>
-      <c r="I240" s="5">
+      <c r="I240" s="9">
         <v>16.6800892857142</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>44</v>
       </c>
@@ -7829,13 +7829,13 @@
       <c r="F241" t="s">
         <v>27</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="9">
         <v>30052.964285714199</v>
       </c>
-      <c r="H241">
+      <c r="H241" s="9">
         <v>841483</v>
       </c>
-      <c r="I241" s="5">
+      <c r="I241" s="9">
         <v>8.3480456349206307</v>
       </c>
     </row>
@@ -7843,12 +7843,7 @@
   <autoFilter ref="A1:I241" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}">
     <filterColumn colId="3">
       <filters>
-        <filter val="FoundationCost"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Mobilization"/>
+        <filter val="ManagementCost"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/project_input_template/landbosse-expected-validation-data.xlsx
+++ b/project_input_template/landbosse-expected-validation-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhaskar/Desktop/Projects/public_landbosse/LandBOSSE/project_input_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B5C786-07FF-1943-BDAA-3185A2792506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6043AD6-A56F-954E-B0FD-CA806B7C9815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27260" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K139" sqref="K139"/>
+      <selection activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -945,7 +945,7 @@
       </c>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1776,16 +1776,14 @@
       <c r="F39" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="2">
-        <f t="shared" si="0"/>
-        <v>371334.19536712352</v>
-      </c>
-      <c r="H39" s="2">
-        <v>371334.19536712352</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" si="1"/>
-        <v>247.55613024474903</v>
+      <c r="G39" s="9">
+        <v>356384.85580801498</v>
+      </c>
+      <c r="H39" s="9">
+        <v>356384.85580801498</v>
+      </c>
+      <c r="I39" s="9">
+        <v>237.58990387201001</v>
       </c>
       <c r="J39"/>
     </row>
@@ -2249,7 +2247,7 @@
       </c>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -2592,16 +2590,14 @@
       <c r="F66" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="2">
-        <f t="shared" si="2"/>
-        <v>371334.19536712341</v>
-      </c>
-      <c r="H66" s="2">
-        <v>1856670.9768356171</v>
-      </c>
-      <c r="I66" s="5">
-        <f t="shared" si="3"/>
-        <v>247.55613024474894</v>
+      <c r="G66" s="9">
+        <v>230037.90286025999</v>
+      </c>
+      <c r="H66" s="9">
+        <v>1150189.5143013</v>
+      </c>
+      <c r="I66" s="9">
+        <v>153.35860190683999</v>
       </c>
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3049,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -3382,7 +3378,7 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -3401,16 +3397,14 @@
       <c r="F93" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="2">
-        <f t="shared" si="2"/>
-        <v>371334.19536712352</v>
-      </c>
-      <c r="H93" s="2">
-        <v>3713341.9536712351</v>
-      </c>
-      <c r="I93" s="5">
-        <f t="shared" si="3"/>
-        <v>247.55613024474903</v>
+      <c r="G93" s="9">
+        <v>190510.64214379399</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1905106.4214379401</v>
+      </c>
+      <c r="I93" s="9">
+        <v>127.00709476252899</v>
       </c>
       <c r="J93"/>
     </row>
@@ -3874,7 +3868,7 @@
       </c>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -4206,7 +4200,7 @@
       </c>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -4686,7 +4680,7 @@
       </c>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -4716,7 +4710,7 @@
       </c>
       <c r="J136"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -4746,7 +4740,7 @@
       </c>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -4776,7 +4770,7 @@
       </c>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -4806,7 +4800,7 @@
       </c>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>41</v>
       </c>
@@ -4836,7 +4830,7 @@
       </c>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -4866,7 +4860,7 @@
       </c>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>41</v>
       </c>
@@ -5196,7 +5190,7 @@
       </c>
       <c r="J152"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -5676,7 +5670,7 @@
       </c>
       <c r="J168"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>42</v>
       </c>
@@ -5706,7 +5700,7 @@
       </c>
       <c r="J169"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>42</v>
       </c>
@@ -5736,7 +5730,7 @@
       </c>
       <c r="J170"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>42</v>
       </c>
@@ -5766,7 +5760,7 @@
       </c>
       <c r="J171"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -5796,7 +5790,7 @@
       </c>
       <c r="J172"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>42</v>
       </c>
@@ -5826,7 +5820,7 @@
       </c>
       <c r="J173"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>42</v>
       </c>
@@ -5856,7 +5850,7 @@
       </c>
       <c r="J174"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>42</v>
       </c>
@@ -6186,7 +6180,7 @@
       </c>
       <c r="J185"/>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -6666,7 +6660,7 @@
       </c>
       <c r="J201"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>43</v>
       </c>
@@ -6696,7 +6690,7 @@
       </c>
       <c r="J202"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -6726,7 +6720,7 @@
       </c>
       <c r="J203"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>43</v>
       </c>
@@ -6756,7 +6750,7 @@
       </c>
       <c r="J204"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>43</v>
       </c>
@@ -6786,7 +6780,7 @@
       </c>
       <c r="J205"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>43</v>
       </c>
@@ -6816,7 +6810,7 @@
       </c>
       <c r="J206"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -6846,7 +6840,7 @@
       </c>
       <c r="J207"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>43</v>
       </c>
@@ -7172,7 +7166,7 @@
         <v>42.427747795912303</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -7636,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>44</v>
       </c>
@@ -7665,7 +7659,7 @@
         <v>1.4841501735456399</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>44</v>
       </c>
@@ -7694,7 +7688,7 @@
         <v>3.9730123513828701</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>44</v>
       </c>
@@ -7723,7 +7717,7 @@
         <v>15.310472217589201</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>44</v>
       </c>
@@ -7752,7 +7746,7 @@
         <v>2.6502681670457999</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>44</v>
       </c>
@@ -7781,7 +7775,7 @@
         <v>34.506491534936302</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>44</v>
       </c>
@@ -7810,7 +7804,7 @@
         <v>16.6800892857142</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>44</v>
       </c>
@@ -7843,7 +7837,7 @@
   <autoFilter ref="A1:I241" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}">
     <filterColumn colId="3">
       <filters>
-        <filter val="ManagementCost"/>
+        <filter val="GridConnectionCost"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/project_input_template/landbosse-expected-validation-data.xlsx
+++ b/project_input_template/landbosse-expected-validation-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pbhaskar/Desktop/Projects/public_landbosse/LandBOSSE/project_input_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF7B4B-A205-5C49-AEFD-94CF624E0689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6043AD6-A56F-954E-B0FD-CA806B7C9815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27260" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,8 +598,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -945,7 +945,7 @@
       </c>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1776,16 +1776,14 @@
       <c r="F39" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="2">
-        <f t="shared" si="0"/>
-        <v>371334.19536712352</v>
-      </c>
-      <c r="H39" s="2">
-        <v>371334.19536712352</v>
-      </c>
-      <c r="I39" s="5">
-        <f t="shared" si="1"/>
-        <v>247.55613024474903</v>
+      <c r="G39" s="9">
+        <v>356384.85580801498</v>
+      </c>
+      <c r="H39" s="9">
+        <v>356384.85580801498</v>
+      </c>
+      <c r="I39" s="9">
+        <v>237.58990387201001</v>
       </c>
       <c r="J39"/>
     </row>
@@ -2069,7 +2067,7 @@
       </c>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2099,7 +2097,7 @@
       </c>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2129,7 +2127,7 @@
       </c>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2159,7 +2157,7 @@
       </c>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -2189,7 +2187,7 @@
       </c>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -2219,7 +2217,7 @@
       </c>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -2592,16 +2590,14 @@
       <c r="F66" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="2">
-        <f t="shared" si="2"/>
-        <v>371334.19536712341</v>
-      </c>
-      <c r="H66" s="2">
-        <v>1856670.9768356171</v>
-      </c>
-      <c r="I66" s="5">
-        <f t="shared" si="3"/>
-        <v>247.55613024474894</v>
+      <c r="G66" s="9">
+        <v>230037.90286025999</v>
+      </c>
+      <c r="H66" s="9">
+        <v>1150189.5143013</v>
+      </c>
+      <c r="I66" s="9">
+        <v>153.35860190683999</v>
       </c>
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2875,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -2904,7 +2900,7 @@
         <v>4.6212259478957902</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -2933,7 +2929,7 @@
         <v>0.17580000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -2962,7 +2958,7 @@
         <v>34.096911433079399</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -2991,7 +2987,7 @@
         <v>53.460799999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -3020,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -3382,7 +3378,7 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -3401,16 +3397,14 @@
       <c r="F93" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="2">
-        <f t="shared" si="2"/>
-        <v>371334.19536712352</v>
-      </c>
-      <c r="H93" s="2">
-        <v>3713341.9536712351</v>
-      </c>
-      <c r="I93" s="5">
-        <f t="shared" si="3"/>
-        <v>247.55613024474903</v>
+      <c r="G93" s="9">
+        <v>190510.64214379399</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1905106.4214379401</v>
+      </c>
+      <c r="I93" s="9">
+        <v>127.00709476252899</v>
       </c>
       <c r="J93"/>
     </row>
@@ -3694,7 +3688,7 @@
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>40</v>
       </c>
@@ -3724,7 +3718,7 @@
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>40</v>
       </c>
@@ -3754,7 +3748,7 @@
       </c>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>40</v>
       </c>
@@ -3784,7 +3778,7 @@
       </c>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>40</v>
       </c>
@@ -3814,7 +3808,7 @@
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>40</v>
       </c>
@@ -3844,7 +3838,7 @@
       </c>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -4016,10 +4010,10 @@
         <v>18</v>
       </c>
       <c r="G113">
-        <v>9558.2447726232804</v>
+        <v>4779.1223863116402</v>
       </c>
       <c r="H113">
-        <v>955824.47726232803</v>
+        <v>477912.23863116401</v>
       </c>
       <c r="I113" s="5">
         <v>6.3721631817488502</v>
@@ -4206,7 +4200,7 @@
       </c>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -4506,7 +4500,7 @@
       </c>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -4536,7 +4530,7 @@
       </c>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>41</v>
       </c>
@@ -4566,7 +4560,7 @@
       </c>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -4596,7 +4590,7 @@
       </c>
       <c r="J132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>41</v>
       </c>
@@ -4626,7 +4620,7 @@
       </c>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -4656,7 +4650,7 @@
       </c>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -4705,14 +4699,14 @@
       <c r="F136" t="s">
         <v>24</v>
       </c>
-      <c r="G136">
-        <v>1910.48209148397</v>
-      </c>
-      <c r="H136">
-        <v>191048.209148397</v>
-      </c>
-      <c r="I136" s="5">
-        <v>1.27365472765598</v>
+      <c r="G136" s="9">
+        <v>1883.71900612063</v>
+      </c>
+      <c r="H136" s="9">
+        <v>188371.90061206301</v>
+      </c>
+      <c r="I136" s="9">
+        <v>1.25581267074708</v>
       </c>
       <c r="J136"/>
     </row>
@@ -4735,14 +4729,14 @@
       <c r="F137" t="s">
         <v>22</v>
       </c>
-      <c r="G137">
-        <v>4102.8138499771203</v>
-      </c>
-      <c r="H137">
-        <v>410281.38499771198</v>
-      </c>
-      <c r="I137" s="5">
-        <v>2.7352092333180802</v>
+      <c r="G137" s="9">
+        <v>4007.2314022508899</v>
+      </c>
+      <c r="H137" s="9">
+        <v>400723.14022508898</v>
+      </c>
+      <c r="I137" s="9">
+        <v>2.6714876015005902</v>
       </c>
       <c r="J137"/>
     </row>
@@ -4765,13 +4759,13 @@
       <c r="F138" t="s">
         <v>26</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="9">
         <v>18877.634920373399</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="9">
         <v>1887763.4920373401</v>
       </c>
-      <c r="I138" s="5">
+      <c r="I138" s="9">
         <v>12.5850899469156</v>
       </c>
       <c r="J138"/>
@@ -4795,14 +4789,14 @@
       <c r="F139" t="s">
         <v>21</v>
       </c>
-      <c r="G139">
-        <v>3411.5751633642399</v>
-      </c>
-      <c r="H139">
-        <v>341157.51633642399</v>
-      </c>
-      <c r="I139" s="5">
-        <v>2.2743834422428302</v>
+      <c r="G139" s="9">
+        <v>3363.7839395011201</v>
+      </c>
+      <c r="H139" s="9">
+        <v>336378.39395011298</v>
+      </c>
+      <c r="I139" s="9">
+        <v>2.2425226263340798</v>
       </c>
       <c r="J139"/>
     </row>
@@ -4825,14 +4819,14 @@
       <c r="F140" t="s">
         <v>25</v>
       </c>
-      <c r="G140">
-        <v>44418.708627002401</v>
-      </c>
-      <c r="H140">
-        <v>4441870.8627002398</v>
-      </c>
-      <c r="I140" s="5">
-        <v>29.612472418001602</v>
+      <c r="G140" s="9">
+        <v>43796.466892304699</v>
+      </c>
+      <c r="H140" s="9">
+        <v>4379646.68923047</v>
+      </c>
+      <c r="I140" s="9">
+        <v>29.1976445948698</v>
       </c>
       <c r="J140"/>
     </row>
@@ -4855,13 +4849,13 @@
       <c r="F141" t="s">
         <v>23</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="9">
         <v>20713.25</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="9">
         <v>2071325</v>
       </c>
-      <c r="I141" s="5">
+      <c r="I141" s="9">
         <v>13.8088333333333</v>
       </c>
       <c r="J141"/>
@@ -4885,13 +4879,13 @@
       <c r="F142" t="s">
         <v>27</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="9">
         <v>13067.4835</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="9">
         <v>1306748.3500000001</v>
       </c>
-      <c r="I142" s="5">
+      <c r="I142" s="9">
         <v>8.71165566666666</v>
       </c>
       <c r="J142"/>
@@ -5006,10 +5000,10 @@
         <v>18</v>
       </c>
       <c r="G146">
-        <v>13767.1137355049</v>
+        <v>6883.5568677524498</v>
       </c>
       <c r="H146">
-        <v>826026.82413029601</v>
+        <v>413013.412065148</v>
       </c>
       <c r="I146" s="5">
         <v>5.5068454942019702</v>
@@ -5196,7 +5190,7 @@
       </c>
       <c r="J152"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>42</v>
       </c>
@@ -5496,7 +5490,7 @@
       </c>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -5526,7 +5520,7 @@
       </c>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>42</v>
       </c>
@@ -5556,7 +5550,7 @@
       </c>
       <c r="J164"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>42</v>
       </c>
@@ -5586,7 +5580,7 @@
       </c>
       <c r="J165"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>42</v>
       </c>
@@ -5616,7 +5610,7 @@
       </c>
       <c r="J166"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -5646,7 +5640,7 @@
       </c>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>42</v>
       </c>
@@ -5695,14 +5689,14 @@
       <c r="F169" t="s">
         <v>24</v>
       </c>
-      <c r="G169">
-        <v>2715.9001117631901</v>
-      </c>
-      <c r="H169">
-        <v>162954.00670579099</v>
-      </c>
-      <c r="I169" s="5">
-        <v>1.0863600447052699</v>
+      <c r="G169" s="9">
+        <v>2677.35219330378</v>
+      </c>
+      <c r="H169" s="9">
+        <v>160641.131598226</v>
+      </c>
+      <c r="I169" s="9">
+        <v>1.0709408773215101</v>
       </c>
       <c r="J169"/>
     </row>
@@ -5725,14 +5719,14 @@
       <c r="F170" t="s">
         <v>22</v>
       </c>
-      <c r="G170">
-        <v>6362.0983551444197</v>
-      </c>
-      <c r="H170">
-        <v>381725.90130866499</v>
-      </c>
-      <c r="I170" s="5">
-        <v>2.54483934205776</v>
+      <c r="G170" s="9">
+        <v>6224.4272177893599</v>
+      </c>
+      <c r="H170" s="9">
+        <v>373465.63306736201</v>
+      </c>
+      <c r="I170" s="9">
+        <v>2.48977088711574</v>
       </c>
       <c r="J170"/>
     </row>
@@ -5755,13 +5749,13 @@
       <c r="F171" t="s">
         <v>26</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="9">
         <v>27236.217376004999</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="9">
         <v>1634173.0425603001</v>
       </c>
-      <c r="I171" s="5">
+      <c r="I171" s="9">
         <v>10.894486950401999</v>
       </c>
       <c r="J171"/>
@@ -5785,14 +5779,14 @@
       <c r="F172" t="s">
         <v>21</v>
       </c>
-      <c r="G172">
-        <v>4849.8216281485602</v>
-      </c>
-      <c r="H172">
-        <v>290989.29768891301</v>
-      </c>
-      <c r="I172" s="5">
-        <v>1.93992865125942</v>
+      <c r="G172" s="9">
+        <v>4780.9860594710399</v>
+      </c>
+      <c r="H172" s="9">
+        <v>286859.16356826201</v>
+      </c>
+      <c r="I172" s="9">
+        <v>1.9123944237884101</v>
       </c>
       <c r="J172"/>
     </row>
@@ -5815,14 +5809,14 @@
       <c r="F173" t="s">
         <v>25</v>
       </c>
-      <c r="G173">
-        <v>63144.677598494301</v>
-      </c>
-      <c r="H173">
-        <v>3788680.65590965</v>
-      </c>
-      <c r="I173" s="5">
-        <v>25.257871039397699</v>
+      <c r="G173" s="9">
+        <v>62248.438494312897</v>
+      </c>
+      <c r="H173" s="9">
+        <v>3734906.30965877</v>
+      </c>
+      <c r="I173" s="9">
+        <v>24.899375397725098</v>
       </c>
       <c r="J173"/>
     </row>
@@ -5845,13 +5839,13 @@
       <c r="F174" t="s">
         <v>23</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="9">
         <v>29169.75</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="9">
         <v>1750185</v>
       </c>
-      <c r="I174" s="5">
+      <c r="I174" s="9">
         <v>11.667899999999999</v>
       </c>
       <c r="J174"/>
@@ -5875,13 +5869,13 @@
       <c r="F175" t="s">
         <v>27</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="9">
         <v>18172.713366666601</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="9">
         <v>1090362.8019999999</v>
       </c>
-      <c r="I175" s="5">
+      <c r="I175" s="9">
         <v>7.2690853466666603</v>
       </c>
       <c r="J175"/>
@@ -5996,10 +5990,10 @@
         <v>18</v>
       </c>
       <c r="G179">
-        <v>22594.5166764401</v>
+        <v>11297.25833822005</v>
       </c>
       <c r="H179">
-        <v>632646.46694032406</v>
+        <v>316323.23347016203</v>
       </c>
       <c r="I179" s="5">
         <v>6.2762546323444903</v>
@@ -6186,7 +6180,7 @@
       </c>
       <c r="J185"/>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -6486,7 +6480,7 @@
       </c>
       <c r="J195"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>43</v>
       </c>
@@ -6516,7 +6510,7 @@
       </c>
       <c r="J196"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>43</v>
       </c>
@@ -6546,7 +6540,7 @@
       </c>
       <c r="J197"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>43</v>
       </c>
@@ -6576,7 +6570,7 @@
       </c>
       <c r="J198"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>43</v>
       </c>
@@ -6606,7 +6600,7 @@
       </c>
       <c r="J199"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>43</v>
       </c>
@@ -6636,7 +6630,7 @@
       </c>
       <c r="J200"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>43</v>
       </c>
@@ -6685,14 +6679,14 @@
       <c r="F202" t="s">
         <v>24</v>
       </c>
-      <c r="G202">
-        <v>4547.2666397718403</v>
-      </c>
-      <c r="H202">
-        <v>127323.465913611</v>
-      </c>
-      <c r="I202" s="5">
-        <v>1.2631296221588399</v>
+      <c r="G202" s="9">
+        <v>4484.0019930777999</v>
+      </c>
+      <c r="H202" s="9">
+        <v>125552.055806178</v>
+      </c>
+      <c r="I202" s="9">
+        <v>1.2455561091882801</v>
       </c>
       <c r="J202"/>
     </row>
@@ -6715,14 +6709,14 @@
       <c r="F203" t="s">
         <v>22</v>
       </c>
-      <c r="G203">
-        <v>12113.650811673901</v>
-      </c>
-      <c r="H203">
-        <v>339182.22272687103</v>
-      </c>
-      <c r="I203" s="5">
-        <v>3.36490300324277</v>
+      <c r="G203" s="9">
+        <v>11887.7056449095</v>
+      </c>
+      <c r="H203" s="9">
+        <v>332855.75805746799</v>
+      </c>
+      <c r="I203" s="9">
+        <v>3.3021404569193198</v>
       </c>
       <c r="J203"/>
     </row>
@@ -6745,13 +6739,13 @@
       <c r="F204" t="s">
         <v>26</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="9">
         <v>55117.699983321399</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="9">
         <v>1543295.59953299</v>
       </c>
-      <c r="I204" s="5">
+      <c r="I204" s="9">
         <v>15.310472217589201</v>
       </c>
       <c r="J204"/>
@@ -6775,14 +6769,14 @@
       <c r="F205" t="s">
         <v>21</v>
       </c>
-      <c r="G205">
-        <v>8120.1189995925697</v>
-      </c>
-      <c r="H205">
-        <v>227363.33198859199</v>
-      </c>
-      <c r="I205" s="5">
-        <v>2.25558861099793</v>
+      <c r="G205" s="9">
+        <v>8007.1464162103703</v>
+      </c>
+      <c r="H205" s="9">
+        <v>224200.09965389001</v>
+      </c>
+      <c r="I205" s="9">
+        <v>2.2242073378362099</v>
       </c>
       <c r="J205"/>
     </row>
@@ -6805,14 +6799,14 @@
       <c r="F206" t="s">
         <v>25</v>
       </c>
-      <c r="G206">
-        <v>105723.949374695</v>
-      </c>
-      <c r="H206">
-        <v>2960270.5824914598</v>
-      </c>
-      <c r="I206" s="5">
-        <v>29.367763715193099</v>
+      <c r="G206" s="9">
+        <v>104253.046339059</v>
+      </c>
+      <c r="H206" s="9">
+        <v>2919085.2974936501</v>
+      </c>
+      <c r="I206" s="9">
+        <v>28.959179538627499</v>
       </c>
       <c r="J206"/>
     </row>
@@ -6835,13 +6829,13 @@
       <c r="F207" t="s">
         <v>23</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="9">
         <v>52491.1785714285</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="9">
         <v>1469753</v>
       </c>
-      <c r="I207" s="5">
+      <c r="I207" s="9">
         <v>14.5808829365079</v>
       </c>
       <c r="J207"/>
@@ -6865,13 +6859,13 @@
       <c r="F208" t="s">
         <v>27</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="9">
         <v>30052.964285714199</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="9">
         <v>841483</v>
       </c>
-      <c r="I208" s="5">
+      <c r="I208" s="9">
         <v>8.3480456349206307</v>
       </c>
       <c r="J208"/>
@@ -6986,10 +6980,10 @@
         <v>18</v>
       </c>
       <c r="G212">
-        <v>34095.177724386704</v>
+        <v>17047.588862193352</v>
       </c>
       <c r="H212">
-        <v>954664.97628282697</v>
+        <v>477332.48814141349</v>
       </c>
       <c r="I212" s="5">
         <v>9.4708827012185299</v>
@@ -7172,7 +7166,7 @@
         <v>42.427747795912303</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -7462,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>44</v>
       </c>
@@ -7491,7 +7485,7 @@
         <v>4.4277152518070899</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>44</v>
       </c>
@@ -7520,7 +7514,7 @@
         <v>0.140997023809523</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>44</v>
       </c>
@@ -7549,7 +7543,7 @@
         <v>23.866980645429599</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>44</v>
       </c>
@@ -7578,7 +7572,7 @@
         <v>8.9217261904761909</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>44</v>
       </c>
@@ -7607,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>44</v>
       </c>
@@ -7655,14 +7649,14 @@
       <c r="F235" t="s">
         <v>24</v>
       </c>
-      <c r="G235">
-        <v>5438.4071223926103</v>
-      </c>
-      <c r="H235">
-        <v>152275.39942699301</v>
-      </c>
-      <c r="I235" s="5">
-        <v>1.5106686451090601</v>
+      <c r="G235" s="9">
+        <v>5342.9406247643301</v>
+      </c>
+      <c r="H235" s="9">
+        <v>149602.33749340099</v>
+      </c>
+      <c r="I235" s="9">
+        <v>1.4841501735456399</v>
       </c>
     </row>
     <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -7684,14 +7678,14 @@
       <c r="F236" t="s">
         <v>22</v>
       </c>
-      <c r="G236">
-        <v>14643.796242222201</v>
-      </c>
-      <c r="H236">
-        <v>410026.29478222202</v>
-      </c>
-      <c r="I236" s="5">
-        <v>4.0677211783950602</v>
+      <c r="G236" s="9">
+        <v>14302.8444649783</v>
+      </c>
+      <c r="H236" s="9">
+        <v>400479.64501939301</v>
+      </c>
+      <c r="I236" s="9">
+        <v>3.9730123513828701</v>
       </c>
     </row>
     <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -7713,13 +7707,13 @@
       <c r="F237" t="s">
         <v>26</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="9">
         <v>55117.699983321399</v>
       </c>
-      <c r="H237">
+      <c r="H237" s="9">
         <v>1543295.59953299</v>
       </c>
-      <c r="I237" s="5">
+      <c r="I237" s="9">
         <v>15.310472217589201</v>
       </c>
     </row>
@@ -7742,14 +7736,14 @@
       <c r="F238" t="s">
         <v>21</v>
       </c>
-      <c r="G238">
-        <v>9711.4412899868094</v>
-      </c>
-      <c r="H238">
-        <v>271920.35611962999</v>
-      </c>
-      <c r="I238" s="5">
-        <v>2.6976225805518901</v>
+      <c r="G238" s="9">
+        <v>9540.9654013648797</v>
+      </c>
+      <c r="H238" s="9">
+        <v>267147.03123821598</v>
+      </c>
+      <c r="I238" s="9">
+        <v>2.6502681670457999</v>
       </c>
     </row>
     <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -7771,14 +7765,14 @@
       <c r="F239" t="s">
         <v>25</v>
       </c>
-      <c r="G239">
-        <v>126442.965595628</v>
-      </c>
-      <c r="H239">
-        <v>3540403.0366775901</v>
-      </c>
-      <c r="I239" s="5">
-        <v>35.123045998785599</v>
+      <c r="G239" s="9">
+        <v>124223.36952577</v>
+      </c>
+      <c r="H239" s="9">
+        <v>3478254.3467215798</v>
+      </c>
+      <c r="I239" s="9">
+        <v>34.506491534936302</v>
       </c>
     </row>
     <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -7800,13 +7794,13 @@
       <c r="F240" t="s">
         <v>23</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="9">
         <v>60048.321428571398</v>
       </c>
-      <c r="H240">
+      <c r="H240" s="9">
         <v>1681353</v>
       </c>
-      <c r="I240" s="5">
+      <c r="I240" s="9">
         <v>16.6800892857142</v>
       </c>
     </row>
@@ -7829,13 +7823,13 @@
       <c r="F241" t="s">
         <v>27</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="9">
         <v>30052.964285714199</v>
       </c>
-      <c r="H241">
+      <c r="H241" s="9">
         <v>841483</v>
       </c>
-      <c r="I241" s="5">
+      <c r="I241" s="9">
         <v>8.3480456349206307</v>
       </c>
     </row>
@@ -7843,7 +7837,7 @@
   <autoFilter ref="A1:I241" xr:uid="{74B3986E-2BCE-704E-B480-617FD308BB93}">
     <filterColumn colId="3">
       <filters>
-        <filter val="ErectionCost"/>
+        <filter val="GridConnectionCost"/>
       </filters>
     </filterColumn>
   </autoFilter>
